--- a/trunk/7. Reference/Noi Dung Cong Viec 23.11/Huy Ngo/Master_plan.xlsx
+++ b/trunk/7. Reference/Noi Dung Cong Viec 23.11/Huy Ngo/Master_plan.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="108">
   <si>
     <t>Document Reviewer Information</t>
   </si>
@@ -200,9 +200,6 @@
     <t>Create sprint backlog</t>
   </si>
   <si>
-    <t>Sprint 1</t>
-  </si>
-  <si>
     <t>detail design for sprint 1</t>
   </si>
   <si>
@@ -230,9 +227,6 @@
     <t>implement componant of sprint 2</t>
   </si>
   <si>
-    <t>prepare story for sprint 3</t>
-  </si>
-  <si>
     <t>implement integration test between sprint 1 &amp; 2</t>
   </si>
   <si>
@@ -330,6 +324,22 @@
   </si>
   <si>
     <t>31/12/2013</t>
+  </si>
+  <si>
+    <t>system context</t>
+  </si>
+  <si>
+    <t>mapping physical with dynamic</t>
+  </si>
+  <si>
+    <t>mapping static with dynamic</t>
+  </si>
+  <si>
+    <t>prepare users tories for sprint 3</t>
+  </si>
+  <si>
+    <t>Sprint 1
+(Sprint scrum)</t>
   </si>
 </sst>
 </file>
@@ -431,7 +441,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -480,8 +490,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="25">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -811,11 +827,76 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -982,6 +1063,15 @@
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1017,6 +1107,18 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1370,11 +1472,11 @@
       <c r="D7" s="5"/>
     </row>
     <row r="8" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="58" t="s">
+      <c r="B8" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="59"/>
-      <c r="D8" s="60"/>
+      <c r="C8" s="62"/>
+      <c r="D8" s="63"/>
     </row>
     <row r="9" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B9" s="6"/>
@@ -1484,10 +1586,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:I285"/>
+  <dimension ref="B1:I289"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1504,16 +1606,16 @@
   <sheetData>
     <row r="1" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="67" t="s">
+      <c r="B2" s="70" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="68"/>
-      <c r="I2" s="69"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="71"/>
+      <c r="I2" s="72"/>
     </row>
     <row r="3" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="46" t="s">
@@ -1532,7 +1634,7 @@
         <v>20</v>
       </c>
       <c r="G3" s="47" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H3" s="47" t="s">
         <v>21</v>
@@ -1545,7 +1647,7 @@
       <c r="B4" s="34">
         <v>1</v>
       </c>
-      <c r="C4" s="61" t="s">
+      <c r="C4" s="64" t="s">
         <v>24</v>
       </c>
       <c r="D4" s="35" t="s">
@@ -1559,17 +1661,17 @@
       </c>
       <c r="G4" s="35"/>
       <c r="H4" s="35" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I4" s="22" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="2:9" s="57" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="52">
         <v>2</v>
       </c>
-      <c r="C5" s="62"/>
+      <c r="C5" s="65"/>
       <c r="D5" s="53" t="s">
         <v>26</v>
       </c>
@@ -1577,17 +1679,19 @@
         <v>41466</v>
       </c>
       <c r="F5" s="55" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G5" s="53"/>
-      <c r="H5" s="53"/>
+      <c r="H5" s="53" t="s">
+        <v>90</v>
+      </c>
       <c r="I5" s="56"/>
     </row>
     <row r="6" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="37">
         <v>3</v>
       </c>
-      <c r="C6" s="62"/>
+      <c r="C6" s="65"/>
       <c r="D6" s="38" t="s">
         <v>27</v>
       </c>
@@ -1595,43 +1699,43 @@
         <v>41466</v>
       </c>
       <c r="F6" s="39" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G6" s="38"/>
       <c r="H6" s="38" t="s">
         <v>16</v>
       </c>
       <c r="I6" s="22" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="37">
         <v>4</v>
       </c>
-      <c r="C7" s="62"/>
+      <c r="C7" s="65"/>
       <c r="D7" s="38" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E7" s="51">
         <v>41466</v>
       </c>
       <c r="F7" s="39" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G7" s="38"/>
       <c r="H7" s="38" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I7" s="22" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="37"/>
-      <c r="C8" s="62"/>
+      <c r="C8" s="65"/>
       <c r="D8" s="38" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E8" s="51">
         <v>41497</v>
@@ -1641,17 +1745,17 @@
       </c>
       <c r="G8" s="38"/>
       <c r="H8" s="38" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I8" s="22" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="37">
         <v>5</v>
       </c>
-      <c r="C9" s="62"/>
+      <c r="C9" s="65"/>
       <c r="D9" s="38" t="s">
         <v>28</v>
       </c>
@@ -1659,21 +1763,21 @@
         <v>41466</v>
       </c>
       <c r="F9" s="39" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G9" s="38"/>
       <c r="H9" s="38" t="s">
         <v>16</v>
       </c>
       <c r="I9" s="22" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="37">
         <v>6</v>
       </c>
-      <c r="C10" s="62"/>
+      <c r="C10" s="65"/>
       <c r="D10" s="38" t="s">
         <v>29</v>
       </c>
@@ -1681,21 +1785,21 @@
         <v>41466</v>
       </c>
       <c r="F10" s="39" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G10" s="38"/>
       <c r="H10" s="38" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I10" s="22" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="37">
         <v>7</v>
       </c>
-      <c r="C11" s="62"/>
+      <c r="C11" s="65"/>
       <c r="D11" s="38" t="s">
         <v>30</v>
       </c>
@@ -1703,21 +1807,21 @@
         <v>41466</v>
       </c>
       <c r="F11" s="39" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G11" s="38"/>
       <c r="H11" s="38" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="I11" s="22" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="37">
         <v>8</v>
       </c>
-      <c r="C12" s="62"/>
+      <c r="C12" s="65"/>
       <c r="D12" s="38" t="s">
         <v>31</v>
       </c>
@@ -1725,21 +1829,21 @@
         <v>41466</v>
       </c>
       <c r="F12" s="39" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G12" s="38"/>
       <c r="H12" s="38" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I12" s="22" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="37">
         <v>9</v>
       </c>
-      <c r="C13" s="62"/>
+      <c r="C13" s="65"/>
       <c r="D13" s="38" t="s">
         <v>32</v>
       </c>
@@ -1747,99 +1851,101 @@
         <v>41466</v>
       </c>
       <c r="F13" s="39" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G13" s="38"/>
       <c r="H13" s="38" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I13" s="22" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="37">
         <v>10</v>
       </c>
-      <c r="C14" s="62"/>
+      <c r="C14" s="65"/>
       <c r="D14" s="38" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E14" s="51">
         <v>41466</v>
       </c>
       <c r="F14" s="39" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G14" s="38"/>
       <c r="H14" s="38" t="s">
+        <v>89</v>
+      </c>
+      <c r="I14" s="22" t="s">
         <v>91</v>
-      </c>
-      <c r="I14" s="22" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="15" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="37">
         <v>11</v>
       </c>
-      <c r="C15" s="62"/>
+      <c r="C15" s="65"/>
       <c r="D15" s="38" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E15" s="51">
         <v>41466</v>
       </c>
       <c r="F15" s="39" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G15" s="38"/>
       <c r="H15" s="38" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I15" s="22" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="40">
         <v>12</v>
       </c>
-      <c r="C16" s="63"/>
+      <c r="C16" s="66"/>
       <c r="D16" s="41" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E16" s="50">
         <v>41466</v>
       </c>
       <c r="F16" s="39" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G16" s="41"/>
       <c r="H16" s="41" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I16" s="22" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B17" s="20">
         <v>13</v>
       </c>
-      <c r="C17" s="64" t="s">
+      <c r="C17" s="67" t="s">
         <v>33</v>
       </c>
       <c r="D17" s="21" t="s">
         <v>34</v>
       </c>
       <c r="E17" s="31" t="s">
-        <v>101</v>
-      </c>
-      <c r="F17" s="31"/>
+        <v>99</v>
+      </c>
+      <c r="F17" s="31" t="s">
+        <v>94</v>
+      </c>
       <c r="G17" s="21"/>
       <c r="H17" s="14" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="I17" s="28"/>
     </row>
@@ -1847,19 +1953,19 @@
       <c r="B18" s="23">
         <v>14</v>
       </c>
-      <c r="C18" s="65"/>
+      <c r="C18" s="68"/>
       <c r="D18" s="14" t="s">
         <v>35</v>
       </c>
       <c r="E18" s="17" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F18" s="17" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G18" s="14"/>
       <c r="H18" s="14" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I18" s="24"/>
     </row>
@@ -1867,17 +1973,19 @@
       <c r="B19" s="23">
         <v>15</v>
       </c>
-      <c r="C19" s="65"/>
+      <c r="C19" s="68"/>
       <c r="D19" s="14" t="s">
         <v>36</v>
       </c>
       <c r="E19" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="F19" s="17"/>
+        <v>92</v>
+      </c>
+      <c r="F19" s="17" t="s">
+        <v>92</v>
+      </c>
       <c r="G19" s="14"/>
       <c r="H19" s="14" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I19" s="24"/>
     </row>
@@ -1885,7 +1993,7 @@
       <c r="B20" s="23">
         <v>16</v>
       </c>
-      <c r="C20" s="65"/>
+      <c r="C20" s="68"/>
       <c r="D20" s="14" t="s">
         <v>37</v>
       </c>
@@ -1899,7 +2007,7 @@
       <c r="B21" s="23">
         <v>17</v>
       </c>
-      <c r="C21" s="65"/>
+      <c r="C21" s="68"/>
       <c r="D21" s="14" t="s">
         <v>38</v>
       </c>
@@ -1913,7 +2021,7 @@
       <c r="B22" s="23">
         <v>18</v>
       </c>
-      <c r="C22" s="65"/>
+      <c r="C22" s="68"/>
       <c r="D22" s="14" t="s">
         <v>39</v>
       </c>
@@ -1927,7 +2035,7 @@
       <c r="B23" s="23">
         <v>19</v>
       </c>
-      <c r="C23" s="65"/>
+      <c r="C23" s="68"/>
       <c r="D23" s="14" t="s">
         <v>41</v>
       </c>
@@ -1937,7 +2045,7 @@
       <c r="F23" s="17"/>
       <c r="G23" s="14"/>
       <c r="H23" s="14" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I23" s="24"/>
     </row>
@@ -1945,7 +2053,7 @@
       <c r="B24" s="23">
         <v>20</v>
       </c>
-      <c r="C24" s="65"/>
+      <c r="C24" s="68"/>
       <c r="D24" s="14" t="s">
         <v>42</v>
       </c>
@@ -1959,7 +2067,7 @@
       <c r="B25" s="23">
         <v>21</v>
       </c>
-      <c r="C25" s="65"/>
+      <c r="C25" s="68"/>
       <c r="D25" s="14" t="s">
         <v>43</v>
       </c>
@@ -1973,7 +2081,7 @@
       <c r="B26" s="23">
         <v>22</v>
       </c>
-      <c r="C26" s="65"/>
+      <c r="C26" s="68"/>
       <c r="D26" s="14" t="s">
         <v>44</v>
       </c>
@@ -1987,7 +2095,7 @@
       <c r="B27" s="23">
         <v>23</v>
       </c>
-      <c r="C27" s="65"/>
+      <c r="C27" s="68"/>
       <c r="D27" s="14" t="s">
         <v>45</v>
       </c>
@@ -2001,7 +2109,7 @@
       <c r="B28" s="23">
         <v>24</v>
       </c>
-      <c r="C28" s="65"/>
+      <c r="C28" s="68"/>
       <c r="D28" s="14" t="s">
         <v>46</v>
       </c>
@@ -2015,7 +2123,7 @@
       <c r="B29" s="23">
         <v>25</v>
       </c>
-      <c r="C29" s="65"/>
+      <c r="C29" s="68"/>
       <c r="D29" s="14" t="s">
         <v>47</v>
       </c>
@@ -2029,7 +2137,7 @@
       <c r="B30" s="23">
         <v>26</v>
       </c>
-      <c r="C30" s="65"/>
+      <c r="C30" s="68"/>
       <c r="D30" s="14" t="s">
         <v>48</v>
       </c>
@@ -2043,8 +2151,8 @@
       <c r="B31" s="23">
         <v>27</v>
       </c>
-      <c r="C31" s="65"/>
-      <c r="D31" s="14" t="s">
+      <c r="C31" s="68"/>
+      <c r="D31" s="58" t="s">
         <v>49</v>
       </c>
       <c r="E31" s="17"/>
@@ -2057,8 +2165,8 @@
       <c r="B32" s="23">
         <v>28</v>
       </c>
-      <c r="C32" s="65"/>
-      <c r="D32" s="14" t="s">
+      <c r="C32" s="68"/>
+      <c r="D32" s="58" t="s">
         <v>50</v>
       </c>
       <c r="E32" s="17"/>
@@ -2071,8 +2179,8 @@
       <c r="B33" s="23">
         <v>29</v>
       </c>
-      <c r="C33" s="65"/>
-      <c r="D33" s="14" t="s">
+      <c r="C33" s="68"/>
+      <c r="D33" s="58" t="s">
         <v>51</v>
       </c>
       <c r="E33" s="17"/>
@@ -2085,8 +2193,8 @@
       <c r="B34" s="23">
         <v>30</v>
       </c>
-      <c r="C34" s="65"/>
-      <c r="D34" s="14" t="s">
+      <c r="C34" s="68"/>
+      <c r="D34" s="58" t="s">
         <v>52</v>
       </c>
       <c r="E34" s="17"/>
@@ -2099,32 +2207,32 @@
       <c r="B35" s="25">
         <v>31</v>
       </c>
-      <c r="C35" s="66"/>
+      <c r="C35" s="69"/>
       <c r="D35" s="26" t="s">
         <v>53</v>
       </c>
       <c r="E35" s="32" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F35" s="32" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G35" s="26"/>
       <c r="H35" s="26"/>
       <c r="I35" s="27"/>
     </row>
-    <row r="36" spans="2:9" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="34">
         <v>32</v>
       </c>
-      <c r="C36" s="61" t="s">
+      <c r="C36" s="64" t="s">
         <v>54</v>
       </c>
       <c r="D36" s="35" t="s">
         <v>57</v>
       </c>
       <c r="E36" s="36" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F36" s="36"/>
       <c r="G36" s="35"/>
@@ -2135,7 +2243,7 @@
       <c r="B37" s="37">
         <v>33</v>
       </c>
-      <c r="C37" s="62"/>
+      <c r="C37" s="65"/>
       <c r="D37" s="38" t="s">
         <v>58</v>
       </c>
@@ -2149,7 +2257,7 @@
       <c r="B38" s="37">
         <v>34</v>
       </c>
-      <c r="C38" s="62"/>
+      <c r="C38" s="65"/>
       <c r="D38" s="38" t="s">
         <v>59</v>
       </c>
@@ -2163,7 +2271,7 @@
       <c r="B39" s="37">
         <v>35</v>
       </c>
-      <c r="C39" s="62"/>
+      <c r="C39" s="65"/>
       <c r="D39" s="38" t="s">
         <v>55</v>
       </c>
@@ -2173,11 +2281,11 @@
       <c r="H39" s="38"/>
       <c r="I39" s="44"/>
     </row>
-    <row r="40" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="37">
         <v>36</v>
       </c>
-      <c r="C40" s="62"/>
+      <c r="C40" s="65"/>
       <c r="D40" s="38" t="s">
         <v>56</v>
       </c>
@@ -2187,11 +2295,11 @@
       <c r="H40" s="38"/>
       <c r="I40" s="44"/>
     </row>
-    <row r="41" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="37">
         <v>37</v>
       </c>
-      <c r="C41" s="62"/>
+      <c r="C41" s="65"/>
       <c r="D41" s="38" t="s">
         <v>60</v>
       </c>
@@ -2201,101 +2309,91 @@
       <c r="H41" s="38"/>
       <c r="I41" s="44"/>
     </row>
-    <row r="42" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B42" s="40">
+    <row r="42" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="59">
         <v>38</v>
       </c>
-      <c r="C42" s="63"/>
-      <c r="D42" s="41" t="s">
-        <v>63</v>
-      </c>
-      <c r="E42" s="42"/>
-      <c r="F42" s="42"/>
-      <c r="G42" s="41"/>
-      <c r="H42" s="41"/>
-      <c r="I42" s="45"/>
-    </row>
-    <row r="43" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B43" s="20">
+      <c r="C42" s="65"/>
+      <c r="D42" s="73" t="s">
+        <v>62</v>
+      </c>
+      <c r="E42" s="74"/>
+      <c r="F42" s="74"/>
+      <c r="G42" s="73"/>
+      <c r="H42" s="73"/>
+      <c r="I42" s="75"/>
+    </row>
+    <row r="43" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="38"/>
+      <c r="C43" s="65"/>
+      <c r="D43" s="38" t="s">
+        <v>103</v>
+      </c>
+      <c r="E43" s="39"/>
+      <c r="F43" s="39"/>
+      <c r="G43" s="38"/>
+      <c r="H43" s="38"/>
+      <c r="I43" s="39"/>
+    </row>
+    <row r="44" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="38"/>
+      <c r="C44" s="65"/>
+      <c r="D44" s="38" t="s">
+        <v>104</v>
+      </c>
+      <c r="E44" s="39"/>
+      <c r="F44" s="39"/>
+      <c r="G44" s="38"/>
+      <c r="H44" s="38"/>
+      <c r="I44" s="39"/>
+    </row>
+    <row r="45" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="38"/>
+      <c r="C45" s="65"/>
+      <c r="D45" s="38" t="s">
+        <v>105</v>
+      </c>
+      <c r="E45" s="39"/>
+      <c r="F45" s="39"/>
+      <c r="G45" s="38"/>
+      <c r="H45" s="38"/>
+      <c r="I45" s="39"/>
+    </row>
+    <row r="46" spans="2:9" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B46" s="38"/>
+      <c r="C46" s="66"/>
+      <c r="D46" s="38"/>
+      <c r="E46" s="39"/>
+      <c r="F46" s="39"/>
+      <c r="G46" s="38"/>
+      <c r="H46" s="38"/>
+      <c r="I46" s="39"/>
+    </row>
+    <row r="47" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B47" s="60">
         <v>39</v>
       </c>
-      <c r="C43" s="64" t="s">
+      <c r="C47" s="67" t="s">
+        <v>107</v>
+      </c>
+      <c r="D47" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="D43" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="E43" s="31" t="s">
-        <v>103</v>
-      </c>
-      <c r="F43" s="31"/>
-      <c r="G43" s="21"/>
-      <c r="H43" s="21"/>
-      <c r="I43" s="28"/>
-    </row>
-    <row r="44" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B44" s="23">
-        <v>40</v>
-      </c>
-      <c r="C44" s="65"/>
-      <c r="D44" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="E44" s="17"/>
-      <c r="F44" s="17"/>
-      <c r="G44" s="14"/>
-      <c r="H44" s="14"/>
-      <c r="I44" s="24"/>
-    </row>
-    <row r="45" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B45" s="23">
-        <v>41</v>
-      </c>
-      <c r="C45" s="65"/>
-      <c r="D45" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="E45" s="17"/>
-      <c r="F45" s="17"/>
-      <c r="G45" s="14"/>
-      <c r="H45" s="14"/>
-      <c r="I45" s="24"/>
-    </row>
-    <row r="46" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B46" s="23">
-        <v>42</v>
-      </c>
-      <c r="C46" s="65"/>
-      <c r="D46" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="E46" s="17"/>
-      <c r="F46" s="17"/>
-      <c r="G46" s="14"/>
-      <c r="H46" s="14"/>
-      <c r="I46" s="24"/>
-    </row>
-    <row r="47" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B47" s="23">
-        <v>43</v>
-      </c>
-      <c r="C47" s="65"/>
-      <c r="D47" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="E47" s="17"/>
-      <c r="F47" s="17"/>
-      <c r="G47" s="14"/>
-      <c r="H47" s="14"/>
-      <c r="I47" s="24"/>
+      <c r="E47" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="F47" s="19"/>
+      <c r="G47" s="18"/>
+      <c r="H47" s="18"/>
+      <c r="I47" s="76"/>
     </row>
     <row r="48" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B48" s="23">
-        <v>44</v>
-      </c>
-      <c r="C48" s="65"/>
+        <v>40</v>
+      </c>
+      <c r="C48" s="68"/>
       <c r="D48" s="14" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E48" s="17"/>
       <c r="F48" s="17"/>
@@ -2303,99 +2401,99 @@
       <c r="H48" s="14"/>
       <c r="I48" s="24"/>
     </row>
-    <row r="49" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="25">
+    <row r="49" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B49" s="23">
+        <v>41</v>
+      </c>
+      <c r="C49" s="68"/>
+      <c r="D49" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="E49" s="17"/>
+      <c r="F49" s="17"/>
+      <c r="G49" s="14"/>
+      <c r="H49" s="14"/>
+      <c r="I49" s="24"/>
+    </row>
+    <row r="50" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B50" s="23">
+        <v>42</v>
+      </c>
+      <c r="C50" s="68"/>
+      <c r="D50" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="E50" s="17"/>
+      <c r="F50" s="17"/>
+      <c r="G50" s="14"/>
+      <c r="H50" s="14"/>
+      <c r="I50" s="24"/>
+    </row>
+    <row r="51" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B51" s="23">
+        <v>43</v>
+      </c>
+      <c r="C51" s="68"/>
+      <c r="D51" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="E51" s="17"/>
+      <c r="F51" s="17"/>
+      <c r="G51" s="14"/>
+      <c r="H51" s="14"/>
+      <c r="I51" s="24"/>
+    </row>
+    <row r="52" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B52" s="23">
+        <v>44</v>
+      </c>
+      <c r="C52" s="68"/>
+      <c r="D52" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="E52" s="17"/>
+      <c r="F52" s="17"/>
+      <c r="G52" s="14"/>
+      <c r="H52" s="14"/>
+      <c r="I52" s="24"/>
+    </row>
+    <row r="53" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B53" s="25">
         <v>45</v>
       </c>
-      <c r="C49" s="66"/>
-      <c r="D49" s="26" t="s">
-        <v>79</v>
-      </c>
-      <c r="E49" s="32"/>
-      <c r="F49" s="32"/>
-      <c r="G49" s="26"/>
-      <c r="H49" s="26"/>
-      <c r="I49" s="27"/>
-    </row>
-    <row r="50" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B50" s="34">
+      <c r="C53" s="69"/>
+      <c r="D53" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="E53" s="32"/>
+      <c r="F53" s="32"/>
+      <c r="G53" s="26"/>
+      <c r="H53" s="26"/>
+      <c r="I53" s="27"/>
+    </row>
+    <row r="54" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B54" s="34">
         <v>46</v>
       </c>
-      <c r="C50" s="61" t="s">
+      <c r="C54" s="64" t="s">
+        <v>67</v>
+      </c>
+      <c r="D54" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="D50" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="E50" s="36"/>
-      <c r="F50" s="36"/>
-      <c r="G50" s="35"/>
-      <c r="H50" s="35"/>
-      <c r="I50" s="43"/>
-    </row>
-    <row r="51" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B51" s="37">
-        <v>47</v>
-      </c>
-      <c r="C51" s="62"/>
-      <c r="D51" s="38" t="s">
-        <v>64</v>
-      </c>
-      <c r="E51" s="39"/>
-      <c r="F51" s="39"/>
-      <c r="G51" s="38"/>
-      <c r="H51" s="38"/>
-      <c r="I51" s="44"/>
-    </row>
-    <row r="52" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B52" s="37">
-        <v>48</v>
-      </c>
-      <c r="C52" s="62"/>
-      <c r="D52" s="38" t="s">
-        <v>70</v>
-      </c>
-      <c r="E52" s="39"/>
-      <c r="F52" s="39"/>
-      <c r="G52" s="38"/>
-      <c r="H52" s="38"/>
-      <c r="I52" s="44"/>
-    </row>
-    <row r="53" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B53" s="37">
-        <v>49</v>
-      </c>
-      <c r="C53" s="62"/>
-      <c r="D53" s="38" t="s">
-        <v>66</v>
-      </c>
-      <c r="E53" s="39"/>
-      <c r="F53" s="39"/>
-      <c r="G53" s="38"/>
-      <c r="H53" s="38"/>
-      <c r="I53" s="44"/>
-    </row>
-    <row r="54" spans="2:9" ht="37.5" x14ac:dyDescent="0.3">
-      <c r="B54" s="37">
-        <v>50</v>
-      </c>
-      <c r="C54" s="62"/>
-      <c r="D54" s="38" t="s">
-        <v>72</v>
-      </c>
-      <c r="E54" s="39"/>
-      <c r="F54" s="39"/>
-      <c r="G54" s="38"/>
-      <c r="H54" s="38"/>
-      <c r="I54" s="44"/>
+      <c r="E54" s="36"/>
+      <c r="F54" s="36"/>
+      <c r="G54" s="35"/>
+      <c r="H54" s="35"/>
+      <c r="I54" s="43"/>
     </row>
     <row r="55" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B55" s="37">
-        <v>51</v>
-      </c>
-      <c r="C55" s="62"/>
+        <v>47</v>
+      </c>
+      <c r="C55" s="65"/>
       <c r="D55" s="38" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="E55" s="39"/>
       <c r="F55" s="39"/>
@@ -2405,11 +2503,11 @@
     </row>
     <row r="56" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B56" s="37">
-        <v>52</v>
-      </c>
-      <c r="C56" s="62"/>
+        <v>48</v>
+      </c>
+      <c r="C56" s="65"/>
       <c r="D56" s="38" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E56" s="39"/>
       <c r="F56" s="39"/>
@@ -2417,99 +2515,99 @@
       <c r="H56" s="38"/>
       <c r="I56" s="44"/>
     </row>
-    <row r="57" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B57" s="40">
+    <row r="57" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B57" s="37">
+        <v>49</v>
+      </c>
+      <c r="C57" s="65"/>
+      <c r="D57" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="E57" s="39"/>
+      <c r="F57" s="39"/>
+      <c r="G57" s="38"/>
+      <c r="H57" s="38"/>
+      <c r="I57" s="44"/>
+    </row>
+    <row r="58" spans="2:9" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="B58" s="37">
+        <v>50</v>
+      </c>
+      <c r="C58" s="65"/>
+      <c r="D58" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="E58" s="39"/>
+      <c r="F58" s="39"/>
+      <c r="G58" s="38"/>
+      <c r="H58" s="38"/>
+      <c r="I58" s="44"/>
+    </row>
+    <row r="59" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B59" s="37">
+        <v>51</v>
+      </c>
+      <c r="C59" s="65"/>
+      <c r="D59" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="E59" s="39"/>
+      <c r="F59" s="39"/>
+      <c r="G59" s="38"/>
+      <c r="H59" s="38"/>
+      <c r="I59" s="44"/>
+    </row>
+    <row r="60" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B60" s="37">
+        <v>52</v>
+      </c>
+      <c r="C60" s="65"/>
+      <c r="D60" s="38" t="s">
+        <v>106</v>
+      </c>
+      <c r="E60" s="39"/>
+      <c r="F60" s="39"/>
+      <c r="G60" s="38"/>
+      <c r="H60" s="38"/>
+      <c r="I60" s="44"/>
+    </row>
+    <row r="61" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B61" s="40">
         <v>53</v>
       </c>
-      <c r="C57" s="63"/>
-      <c r="D57" s="41" t="s">
-        <v>80</v>
-      </c>
-      <c r="E57" s="42"/>
-      <c r="F57" s="42"/>
-      <c r="G57" s="41"/>
-      <c r="H57" s="41"/>
-      <c r="I57" s="45"/>
-    </row>
-    <row r="58" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B58" s="20">
+      <c r="C61" s="66"/>
+      <c r="D61" s="41" t="s">
+        <v>78</v>
+      </c>
+      <c r="E61" s="42"/>
+      <c r="F61" s="42"/>
+      <c r="G61" s="41"/>
+      <c r="H61" s="41"/>
+      <c r="I61" s="45"/>
+    </row>
+    <row r="62" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B62" s="20">
         <v>54</v>
       </c>
-      <c r="C58" s="64" t="s">
-        <v>77</v>
-      </c>
-      <c r="D58" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="E58" s="31"/>
-      <c r="F58" s="31"/>
-      <c r="G58" s="21"/>
-      <c r="H58" s="21"/>
-      <c r="I58" s="28"/>
-    </row>
-    <row r="59" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B59" s="23">
-        <v>55</v>
-      </c>
-      <c r="C59" s="65"/>
-      <c r="D59" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="E59" s="17"/>
-      <c r="F59" s="17"/>
-      <c r="G59" s="14"/>
-      <c r="H59" s="14"/>
-      <c r="I59" s="24"/>
-    </row>
-    <row r="60" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B60" s="23">
-        <v>56</v>
-      </c>
-      <c r="C60" s="65"/>
-      <c r="D60" s="14" t="s">
+      <c r="C62" s="67" t="s">
         <v>75</v>
       </c>
-      <c r="E60" s="17"/>
-      <c r="F60" s="17"/>
-      <c r="G60" s="14"/>
-      <c r="H60" s="14"/>
-      <c r="I60" s="24"/>
-    </row>
-    <row r="61" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B61" s="23">
-        <v>57</v>
-      </c>
-      <c r="C61" s="65"/>
-      <c r="D61" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="E61" s="17"/>
-      <c r="F61" s="17"/>
-      <c r="G61" s="14"/>
-      <c r="H61" s="14"/>
-      <c r="I61" s="24"/>
-    </row>
-    <row r="62" spans="2:9" ht="37.5" x14ac:dyDescent="0.3">
-      <c r="B62" s="23">
-        <v>58</v>
-      </c>
-      <c r="C62" s="65"/>
-      <c r="D62" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="E62" s="17"/>
-      <c r="F62" s="17"/>
-      <c r="G62" s="14"/>
-      <c r="H62" s="14"/>
-      <c r="I62" s="24"/>
+      <c r="D62" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="E62" s="31"/>
+      <c r="F62" s="31"/>
+      <c r="G62" s="21"/>
+      <c r="H62" s="21"/>
+      <c r="I62" s="28"/>
     </row>
     <row r="63" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B63" s="23">
-        <v>59</v>
-      </c>
-      <c r="C63" s="65"/>
+        <v>55</v>
+      </c>
+      <c r="C63" s="68"/>
       <c r="D63" s="14" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="E63" s="17"/>
       <c r="F63" s="17"/>
@@ -2519,11 +2617,11 @@
     </row>
     <row r="64" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B64" s="23">
-        <v>60</v>
-      </c>
-      <c r="C64" s="65"/>
+        <v>56</v>
+      </c>
+      <c r="C64" s="68"/>
       <c r="D64" s="14" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E64" s="17"/>
       <c r="F64" s="17"/>
@@ -2531,99 +2629,99 @@
       <c r="H64" s="14"/>
       <c r="I64" s="24"/>
     </row>
-    <row r="65" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B65" s="25">
+    <row r="65" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B65" s="23">
+        <v>57</v>
+      </c>
+      <c r="C65" s="68"/>
+      <c r="D65" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="E65" s="17"/>
+      <c r="F65" s="17"/>
+      <c r="G65" s="14"/>
+      <c r="H65" s="14"/>
+      <c r="I65" s="24"/>
+    </row>
+    <row r="66" spans="2:9" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="B66" s="23">
+        <v>58</v>
+      </c>
+      <c r="C66" s="68"/>
+      <c r="D66" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="E66" s="17"/>
+      <c r="F66" s="17"/>
+      <c r="G66" s="14"/>
+      <c r="H66" s="14"/>
+      <c r="I66" s="24"/>
+    </row>
+    <row r="67" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B67" s="23">
+        <v>59</v>
+      </c>
+      <c r="C67" s="68"/>
+      <c r="D67" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="E67" s="17"/>
+      <c r="F67" s="17"/>
+      <c r="G67" s="14"/>
+      <c r="H67" s="14"/>
+      <c r="I67" s="24"/>
+    </row>
+    <row r="68" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B68" s="23">
+        <v>60</v>
+      </c>
+      <c r="C68" s="68"/>
+      <c r="D68" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="E68" s="17"/>
+      <c r="F68" s="17"/>
+      <c r="G68" s="14"/>
+      <c r="H68" s="14"/>
+      <c r="I68" s="24"/>
+    </row>
+    <row r="69" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B69" s="25">
         <v>61</v>
       </c>
-      <c r="C65" s="66"/>
-      <c r="D65" s="26" t="s">
-        <v>81</v>
-      </c>
-      <c r="E65" s="32"/>
-      <c r="F65" s="32"/>
-      <c r="G65" s="26"/>
-      <c r="H65" s="26"/>
-      <c r="I65" s="27"/>
-    </row>
-    <row r="66" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B66" s="34">
+      <c r="C69" s="69"/>
+      <c r="D69" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="E69" s="32"/>
+      <c r="F69" s="32"/>
+      <c r="G69" s="26"/>
+      <c r="H69" s="26"/>
+      <c r="I69" s="27"/>
+    </row>
+    <row r="70" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B70" s="34">
         <v>62</v>
       </c>
-      <c r="C66" s="61" t="s">
-        <v>78</v>
-      </c>
-      <c r="D66" s="35" t="s">
-        <v>74</v>
-      </c>
-      <c r="E66" s="36"/>
-      <c r="F66" s="36"/>
-      <c r="G66" s="35"/>
-      <c r="H66" s="35"/>
-      <c r="I66" s="43"/>
-    </row>
-    <row r="67" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B67" s="37">
-        <v>63</v>
-      </c>
-      <c r="C67" s="62"/>
-      <c r="D67" s="38" t="s">
-        <v>64</v>
-      </c>
-      <c r="E67" s="39"/>
-      <c r="F67" s="39"/>
-      <c r="G67" s="38"/>
-      <c r="H67" s="38"/>
-      <c r="I67" s="44"/>
-    </row>
-    <row r="68" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B68" s="37">
-        <v>64</v>
-      </c>
-      <c r="C68" s="62"/>
-      <c r="D68" s="38" t="s">
-        <v>75</v>
-      </c>
-      <c r="E68" s="39"/>
-      <c r="F68" s="39"/>
-      <c r="G68" s="38"/>
-      <c r="H68" s="38"/>
-      <c r="I68" s="44"/>
-    </row>
-    <row r="69" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B69" s="37">
-        <v>65</v>
-      </c>
-      <c r="C69" s="62"/>
-      <c r="D69" s="38" t="s">
-        <v>66</v>
-      </c>
-      <c r="E69" s="39"/>
-      <c r="F69" s="39"/>
-      <c r="G69" s="38"/>
-      <c r="H69" s="38"/>
-      <c r="I69" s="44"/>
-    </row>
-    <row r="70" spans="2:9" ht="37.5" x14ac:dyDescent="0.3">
-      <c r="B70" s="37">
-        <v>66</v>
-      </c>
-      <c r="C70" s="62"/>
-      <c r="D70" s="38" t="s">
-        <v>73</v>
-      </c>
-      <c r="E70" s="39"/>
-      <c r="F70" s="39"/>
-      <c r="G70" s="38"/>
-      <c r="H70" s="38"/>
-      <c r="I70" s="44"/>
+      <c r="C70" s="64" t="s">
+        <v>76</v>
+      </c>
+      <c r="D70" s="35" t="s">
+        <v>72</v>
+      </c>
+      <c r="E70" s="36"/>
+      <c r="F70" s="36"/>
+      <c r="G70" s="35"/>
+      <c r="H70" s="35"/>
+      <c r="I70" s="43"/>
     </row>
     <row r="71" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B71" s="37">
-        <v>67</v>
-      </c>
-      <c r="C71" s="62"/>
+        <v>63</v>
+      </c>
+      <c r="C71" s="65"/>
       <c r="D71" s="38" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="E71" s="39"/>
       <c r="F71" s="39"/>
@@ -2633,11 +2731,11 @@
     </row>
     <row r="72" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B72" s="37">
-        <v>68</v>
-      </c>
-      <c r="C72" s="62"/>
+        <v>64</v>
+      </c>
+      <c r="C72" s="65"/>
       <c r="D72" s="38" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E72" s="39"/>
       <c r="F72" s="39"/>
@@ -2645,69 +2743,85 @@
       <c r="H72" s="38"/>
       <c r="I72" s="44"/>
     </row>
-    <row r="73" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B73" s="40">
+    <row r="73" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B73" s="37">
+        <v>65</v>
+      </c>
+      <c r="C73" s="65"/>
+      <c r="D73" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="E73" s="39"/>
+      <c r="F73" s="39"/>
+      <c r="G73" s="38"/>
+      <c r="H73" s="38"/>
+      <c r="I73" s="44"/>
+    </row>
+    <row r="74" spans="2:9" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="B74" s="37">
+        <v>66</v>
+      </c>
+      <c r="C74" s="65"/>
+      <c r="D74" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="E74" s="39"/>
+      <c r="F74" s="39"/>
+      <c r="G74" s="38"/>
+      <c r="H74" s="38"/>
+      <c r="I74" s="44"/>
+    </row>
+    <row r="75" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B75" s="37">
+        <v>67</v>
+      </c>
+      <c r="C75" s="65"/>
+      <c r="D75" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="E75" s="39"/>
+      <c r="F75" s="39"/>
+      <c r="G75" s="38"/>
+      <c r="H75" s="38"/>
+      <c r="I75" s="44"/>
+    </row>
+    <row r="76" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B76" s="37">
+        <v>68</v>
+      </c>
+      <c r="C76" s="65"/>
+      <c r="D76" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="E76" s="39"/>
+      <c r="F76" s="39"/>
+      <c r="G76" s="38"/>
+      <c r="H76" s="38"/>
+      <c r="I76" s="44"/>
+    </row>
+    <row r="77" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B77" s="40">
         <v>69</v>
       </c>
-      <c r="C73" s="63"/>
-      <c r="D73" s="41" t="s">
-        <v>82</v>
-      </c>
-      <c r="E73" s="42"/>
-      <c r="F73" s="42"/>
-      <c r="G73" s="41"/>
-      <c r="H73" s="41"/>
-      <c r="I73" s="45"/>
-    </row>
-    <row r="74" spans="2:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="B74" s="18"/>
-      <c r="C74" s="29"/>
-      <c r="D74" s="18"/>
-      <c r="E74" s="19"/>
-      <c r="F74" s="19"/>
-      <c r="G74" s="18"/>
-      <c r="H74" s="18"/>
-      <c r="I74" s="19"/>
-    </row>
-    <row r="75" spans="2:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="B75" s="14"/>
-      <c r="C75" s="16"/>
-      <c r="D75" s="14"/>
-      <c r="E75" s="17"/>
-      <c r="F75" s="17"/>
-      <c r="G75" s="14"/>
-      <c r="H75" s="14"/>
-      <c r="I75" s="17"/>
-    </row>
-    <row r="76" spans="2:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="B76" s="14"/>
-      <c r="C76" s="16"/>
-      <c r="D76" s="14"/>
-      <c r="E76" s="17"/>
-      <c r="F76" s="17"/>
-      <c r="G76" s="14"/>
-      <c r="H76" s="14"/>
-      <c r="I76" s="17"/>
-    </row>
-    <row r="77" spans="2:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="B77" s="14"/>
-      <c r="C77" s="16"/>
-      <c r="D77" s="14"/>
-      <c r="E77" s="17"/>
-      <c r="F77" s="17"/>
-      <c r="G77" s="14"/>
-      <c r="H77" s="14"/>
-      <c r="I77" s="17"/>
+      <c r="C77" s="66"/>
+      <c r="D77" s="41" t="s">
+        <v>80</v>
+      </c>
+      <c r="E77" s="42"/>
+      <c r="F77" s="42"/>
+      <c r="G77" s="41"/>
+      <c r="H77" s="41"/>
+      <c r="I77" s="45"/>
     </row>
     <row r="78" spans="2:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="B78" s="14"/>
-      <c r="C78" s="16"/>
-      <c r="D78" s="14"/>
-      <c r="E78" s="17"/>
-      <c r="F78" s="17"/>
-      <c r="G78" s="14"/>
-      <c r="H78" s="14"/>
-      <c r="I78" s="17"/>
+      <c r="B78" s="18"/>
+      <c r="C78" s="29"/>
+      <c r="D78" s="18"/>
+      <c r="E78" s="19"/>
+      <c r="F78" s="19"/>
+      <c r="G78" s="18"/>
+      <c r="H78" s="18"/>
+      <c r="I78" s="19"/>
     </row>
     <row r="79" spans="2:9" ht="21" x14ac:dyDescent="0.35">
       <c r="B79" s="14"/>
@@ -2877,7 +2991,7 @@
       <c r="F95" s="17"/>
       <c r="G95" s="14"/>
       <c r="H95" s="14"/>
-      <c r="I95" s="14"/>
+      <c r="I95" s="17"/>
     </row>
     <row r="96" spans="2:9" ht="21" x14ac:dyDescent="0.35">
       <c r="B96" s="14"/>
@@ -2887,7 +3001,7 @@
       <c r="F96" s="17"/>
       <c r="G96" s="14"/>
       <c r="H96" s="14"/>
-      <c r="I96" s="14"/>
+      <c r="I96" s="17"/>
     </row>
     <row r="97" spans="2:9" ht="21" x14ac:dyDescent="0.35">
       <c r="B97" s="14"/>
@@ -2897,7 +3011,7 @@
       <c r="F97" s="17"/>
       <c r="G97" s="14"/>
       <c r="H97" s="14"/>
-      <c r="I97" s="14"/>
+      <c r="I97" s="17"/>
     </row>
     <row r="98" spans="2:9" ht="21" x14ac:dyDescent="0.35">
       <c r="B98" s="14"/>
@@ -2907,7 +3021,7 @@
       <c r="F98" s="17"/>
       <c r="G98" s="14"/>
       <c r="H98" s="14"/>
-      <c r="I98" s="14"/>
+      <c r="I98" s="17"/>
     </row>
     <row r="99" spans="2:9" ht="21" x14ac:dyDescent="0.35">
       <c r="B99" s="14"/>
@@ -3034,7 +3148,7 @@
       <c r="C111" s="16"/>
       <c r="D111" s="14"/>
       <c r="E111" s="17"/>
-      <c r="F111" s="14"/>
+      <c r="F111" s="17"/>
       <c r="G111" s="14"/>
       <c r="H111" s="14"/>
       <c r="I111" s="14"/>
@@ -3044,7 +3158,7 @@
       <c r="C112" s="16"/>
       <c r="D112" s="14"/>
       <c r="E112" s="17"/>
-      <c r="F112" s="14"/>
+      <c r="F112" s="17"/>
       <c r="G112" s="14"/>
       <c r="H112" s="14"/>
       <c r="I112" s="14"/>
@@ -3054,7 +3168,7 @@
       <c r="C113" s="16"/>
       <c r="D113" s="14"/>
       <c r="E113" s="17"/>
-      <c r="F113" s="14"/>
+      <c r="F113" s="17"/>
       <c r="G113" s="14"/>
       <c r="H113" s="14"/>
       <c r="I113" s="14"/>
@@ -3064,7 +3178,7 @@
       <c r="C114" s="16"/>
       <c r="D114" s="14"/>
       <c r="E114" s="17"/>
-      <c r="F114" s="14"/>
+      <c r="F114" s="17"/>
       <c r="G114" s="14"/>
       <c r="H114" s="14"/>
       <c r="I114" s="14"/>
@@ -3261,7 +3375,7 @@
     </row>
     <row r="134" spans="2:9" ht="21" x14ac:dyDescent="0.35">
       <c r="B134" s="14"/>
-      <c r="C134" s="15"/>
+      <c r="C134" s="16"/>
       <c r="D134" s="14"/>
       <c r="E134" s="17"/>
       <c r="F134" s="14"/>
@@ -3271,7 +3385,7 @@
     </row>
     <row r="135" spans="2:9" ht="21" x14ac:dyDescent="0.35">
       <c r="B135" s="14"/>
-      <c r="C135" s="15"/>
+      <c r="C135" s="16"/>
       <c r="D135" s="14"/>
       <c r="E135" s="17"/>
       <c r="F135" s="14"/>
@@ -3281,7 +3395,7 @@
     </row>
     <row r="136" spans="2:9" ht="21" x14ac:dyDescent="0.35">
       <c r="B136" s="14"/>
-      <c r="C136" s="15"/>
+      <c r="C136" s="16"/>
       <c r="D136" s="14"/>
       <c r="E136" s="17"/>
       <c r="F136" s="14"/>
@@ -3291,7 +3405,7 @@
     </row>
     <row r="137" spans="2:9" ht="21" x14ac:dyDescent="0.35">
       <c r="B137" s="14"/>
-      <c r="C137" s="15"/>
+      <c r="C137" s="16"/>
       <c r="D137" s="14"/>
       <c r="E137" s="17"/>
       <c r="F137" s="14"/>
@@ -3589,9 +3703,9 @@
       <c r="H166" s="14"/>
       <c r="I166" s="14"/>
     </row>
-    <row r="167" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="167" spans="2:9" ht="21" x14ac:dyDescent="0.35">
       <c r="B167" s="14"/>
-      <c r="C167" s="14"/>
+      <c r="C167" s="15"/>
       <c r="D167" s="14"/>
       <c r="E167" s="17"/>
       <c r="F167" s="14"/>
@@ -3599,9 +3713,9 @@
       <c r="H167" s="14"/>
       <c r="I167" s="14"/>
     </row>
-    <row r="168" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="168" spans="2:9" ht="21" x14ac:dyDescent="0.35">
       <c r="B168" s="14"/>
-      <c r="C168" s="14"/>
+      <c r="C168" s="15"/>
       <c r="D168" s="14"/>
       <c r="E168" s="17"/>
       <c r="F168" s="14"/>
@@ -3609,9 +3723,9 @@
       <c r="H168" s="14"/>
       <c r="I168" s="14"/>
     </row>
-    <row r="169" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="169" spans="2:9" ht="21" x14ac:dyDescent="0.35">
       <c r="B169" s="14"/>
-      <c r="C169" s="14"/>
+      <c r="C169" s="15"/>
       <c r="D169" s="14"/>
       <c r="E169" s="17"/>
       <c r="F169" s="14"/>
@@ -3619,9 +3733,9 @@
       <c r="H169" s="14"/>
       <c r="I169" s="14"/>
     </row>
-    <row r="170" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="170" spans="2:9" ht="21" x14ac:dyDescent="0.35">
       <c r="B170" s="14"/>
-      <c r="C170" s="14"/>
+      <c r="C170" s="15"/>
       <c r="D170" s="14"/>
       <c r="E170" s="17"/>
       <c r="F170" s="14"/>
@@ -4039,45 +4153,45 @@
       <c r="H211" s="14"/>
       <c r="I211" s="14"/>
     </row>
-    <row r="212" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B212" s="13"/>
-      <c r="C212" s="13"/>
-      <c r="D212" s="13"/>
-      <c r="E212" s="33"/>
-      <c r="F212" s="13"/>
-      <c r="G212" s="13"/>
-      <c r="H212" s="13"/>
-      <c r="I212" s="13"/>
-    </row>
-    <row r="213" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B213" s="13"/>
-      <c r="C213" s="13"/>
-      <c r="D213" s="13"/>
-      <c r="E213" s="33"/>
-      <c r="F213" s="13"/>
-      <c r="G213" s="13"/>
-      <c r="H213" s="13"/>
-      <c r="I213" s="13"/>
-    </row>
-    <row r="214" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B214" s="13"/>
-      <c r="C214" s="13"/>
-      <c r="D214" s="13"/>
-      <c r="E214" s="33"/>
-      <c r="F214" s="13"/>
-      <c r="G214" s="13"/>
-      <c r="H214" s="13"/>
-      <c r="I214" s="13"/>
-    </row>
-    <row r="215" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B215" s="13"/>
-      <c r="C215" s="13"/>
-      <c r="D215" s="13"/>
-      <c r="E215" s="33"/>
-      <c r="F215" s="13"/>
-      <c r="G215" s="13"/>
-      <c r="H215" s="13"/>
-      <c r="I215" s="13"/>
+    <row r="212" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B212" s="14"/>
+      <c r="C212" s="14"/>
+      <c r="D212" s="14"/>
+      <c r="E212" s="17"/>
+      <c r="F212" s="14"/>
+      <c r="G212" s="14"/>
+      <c r="H212" s="14"/>
+      <c r="I212" s="14"/>
+    </row>
+    <row r="213" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B213" s="14"/>
+      <c r="C213" s="14"/>
+      <c r="D213" s="14"/>
+      <c r="E213" s="17"/>
+      <c r="F213" s="14"/>
+      <c r="G213" s="14"/>
+      <c r="H213" s="14"/>
+      <c r="I213" s="14"/>
+    </row>
+    <row r="214" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B214" s="14"/>
+      <c r="C214" s="14"/>
+      <c r="D214" s="14"/>
+      <c r="E214" s="17"/>
+      <c r="F214" s="14"/>
+      <c r="G214" s="14"/>
+      <c r="H214" s="14"/>
+      <c r="I214" s="14"/>
+    </row>
+    <row r="215" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B215" s="14"/>
+      <c r="C215" s="14"/>
+      <c r="D215" s="14"/>
+      <c r="E215" s="17"/>
+      <c r="F215" s="14"/>
+      <c r="G215" s="14"/>
+      <c r="H215" s="14"/>
+      <c r="I215" s="14"/>
     </row>
     <row r="216" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B216" s="13"/>
@@ -4423,7 +4537,7 @@
       <c r="B250" s="13"/>
       <c r="C250" s="13"/>
       <c r="D250" s="13"/>
-      <c r="E250" s="13"/>
+      <c r="E250" s="33"/>
       <c r="F250" s="13"/>
       <c r="G250" s="13"/>
       <c r="H250" s="13"/>
@@ -4433,7 +4547,7 @@
       <c r="B251" s="13"/>
       <c r="C251" s="13"/>
       <c r="D251" s="13"/>
-      <c r="E251" s="13"/>
+      <c r="E251" s="33"/>
       <c r="F251" s="13"/>
       <c r="G251" s="13"/>
       <c r="H251" s="13"/>
@@ -4443,7 +4557,7 @@
       <c r="B252" s="13"/>
       <c r="C252" s="13"/>
       <c r="D252" s="13"/>
-      <c r="E252" s="13"/>
+      <c r="E252" s="33"/>
       <c r="F252" s="13"/>
       <c r="G252" s="13"/>
       <c r="H252" s="13"/>
@@ -4453,7 +4567,7 @@
       <c r="B253" s="13"/>
       <c r="C253" s="13"/>
       <c r="D253" s="13"/>
-      <c r="E253" s="13"/>
+      <c r="E253" s="33"/>
       <c r="F253" s="13"/>
       <c r="G253" s="13"/>
       <c r="H253" s="13"/>
@@ -4779,16 +4893,56 @@
       <c r="H285" s="13"/>
       <c r="I285" s="13"/>
     </row>
+    <row r="286" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B286" s="13"/>
+      <c r="C286" s="13"/>
+      <c r="D286" s="13"/>
+      <c r="E286" s="13"/>
+      <c r="F286" s="13"/>
+      <c r="G286" s="13"/>
+      <c r="H286" s="13"/>
+      <c r="I286" s="13"/>
+    </row>
+    <row r="287" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B287" s="13"/>
+      <c r="C287" s="13"/>
+      <c r="D287" s="13"/>
+      <c r="E287" s="13"/>
+      <c r="F287" s="13"/>
+      <c r="G287" s="13"/>
+      <c r="H287" s="13"/>
+      <c r="I287" s="13"/>
+    </row>
+    <row r="288" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B288" s="13"/>
+      <c r="C288" s="13"/>
+      <c r="D288" s="13"/>
+      <c r="E288" s="13"/>
+      <c r="F288" s="13"/>
+      <c r="G288" s="13"/>
+      <c r="H288" s="13"/>
+      <c r="I288" s="13"/>
+    </row>
+    <row r="289" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B289" s="13"/>
+      <c r="C289" s="13"/>
+      <c r="D289" s="13"/>
+      <c r="E289" s="13"/>
+      <c r="F289" s="13"/>
+      <c r="G289" s="13"/>
+      <c r="H289" s="13"/>
+      <c r="I289" s="13"/>
+    </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="C50:C57"/>
-    <mergeCell ref="C58:C65"/>
-    <mergeCell ref="C66:C73"/>
+    <mergeCell ref="C54:C61"/>
+    <mergeCell ref="C62:C69"/>
+    <mergeCell ref="C70:C77"/>
     <mergeCell ref="B2:I2"/>
     <mergeCell ref="C4:C16"/>
     <mergeCell ref="C17:C35"/>
-    <mergeCell ref="C36:C42"/>
-    <mergeCell ref="C43:C49"/>
+    <mergeCell ref="C47:C53"/>
+    <mergeCell ref="C36:C46"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" copies="0" r:id="rId1"/>

--- a/trunk/7. Reference/Noi Dung Cong Viec 23.11/Huy Ngo/Master_plan.xlsx
+++ b/trunk/7. Reference/Noi Dung Cong Viec 23.11/Huy Ngo/Master_plan.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="108">
   <si>
     <t>Document Reviewer Information</t>
   </si>
@@ -200,66 +200,15 @@
     <t>Create sprint backlog</t>
   </si>
   <si>
-    <t>detail design for sprint 1</t>
-  </si>
-  <si>
     <t xml:space="preserve">design database </t>
   </si>
   <si>
     <t xml:space="preserve">create database </t>
   </si>
   <si>
-    <t>implement componant of sprint 1</t>
-  </si>
-  <si>
     <t>implement unit test</t>
   </si>
   <si>
-    <t>prepare story for sprint 2</t>
-  </si>
-  <si>
-    <t>Sprint 2</t>
-  </si>
-  <si>
-    <t>detail design for sprint 2</t>
-  </si>
-  <si>
-    <t>implement componant of sprint 2</t>
-  </si>
-  <si>
-    <t>implement integration test between sprint 1 &amp; 2</t>
-  </si>
-  <si>
-    <t>implement integration test between sprint 1,2 &amp;3</t>
-  </si>
-  <si>
-    <t>detail design for sprint 3</t>
-  </si>
-  <si>
-    <t>implement componant of sprint 3</t>
-  </si>
-  <si>
-    <t>prepare story for sprint 4</t>
-  </si>
-  <si>
-    <t>Sprint 3</t>
-  </si>
-  <si>
-    <t>Sprint 4</t>
-  </si>
-  <si>
-    <t>release sprint 1</t>
-  </si>
-  <si>
-    <t>release sprint 2</t>
-  </si>
-  <si>
-    <t>release sprint 3</t>
-  </si>
-  <si>
-    <t>release sprint 4</t>
-  </si>
-  <si>
     <t>fix bug</t>
   </si>
   <si>
@@ -335,11 +284,62 @@
     <t>mapping static with dynamic</t>
   </si>
   <si>
-    <t>prepare users tories for sprint 3</t>
-  </si>
-  <si>
-    <t>Sprint 1
-(Sprint scrum)</t>
+    <t>implement itegration test</t>
+  </si>
+  <si>
+    <t>19/01/2014</t>
+  </si>
+  <si>
+    <t>15/11/2013</t>
+  </si>
+  <si>
+    <t>19/11/2013</t>
+  </si>
+  <si>
+    <t>21/11/2013</t>
+  </si>
+  <si>
+    <t>create architural plan</t>
+  </si>
+  <si>
+    <t>22/12/2013</t>
+  </si>
+  <si>
+    <t>identify entities of product</t>
+  </si>
+  <si>
+    <t>14/1/2014</t>
+  </si>
+  <si>
+    <t>15/1/2014</t>
+  </si>
+  <si>
+    <t>17/1/2014</t>
+  </si>
+  <si>
+    <t>18/1/2014</t>
+  </si>
+  <si>
+    <t>19/1/2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Scrum Sprints </t>
+  </si>
+  <si>
+    <t xml:space="preserve">detail design for sprint # </t>
+  </si>
+  <si>
+    <t>implement componant of sprint #</t>
+  </si>
+  <si>
+    <t>prepare story for sprint #</t>
+  </si>
+  <si>
+    <t>release sprint #</t>
+  </si>
+  <si>
+    <t>GOING</t>
   </si>
 </sst>
 </file>
@@ -486,18 +486,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="30">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -828,32 +828,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -892,11 +866,64 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1047,77 +1074,144 @@
     <xf numFmtId="14" fontId="10" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="10" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="6" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1472,11 +1566,11 @@
       <c r="D7" s="5"/>
     </row>
     <row r="8" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="61" t="s">
+      <c r="B8" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="62"/>
-      <c r="D8" s="63"/>
+      <c r="C8" s="57"/>
+      <c r="D8" s="58"/>
     </row>
     <row r="9" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B9" s="6"/>
@@ -1586,10 +1680,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:I289"/>
+  <dimension ref="B1:J291"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1599,23 +1693,23 @@
     <col min="4" max="4" width="50.85546875" customWidth="1"/>
     <col min="5" max="5" width="24.140625" customWidth="1"/>
     <col min="6" max="6" width="22.42578125" customWidth="1"/>
-    <col min="7" max="7" width="21.7109375" customWidth="1"/>
-    <col min="8" max="8" width="29.7109375" customWidth="1"/>
+    <col min="7" max="7" width="21.7109375" style="75" customWidth="1"/>
+    <col min="8" max="8" width="29.7109375" style="86" customWidth="1"/>
     <col min="9" max="9" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="70" t="s">
+      <c r="B2" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="72"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="67"/>
     </row>
     <row r="3" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="46" t="s">
@@ -1634,7 +1728,7 @@
         <v>20</v>
       </c>
       <c r="G3" s="47" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="H3" s="47" t="s">
         <v>21</v>
@@ -1647,7 +1741,7 @@
       <c r="B4" s="34">
         <v>1</v>
       </c>
-      <c r="C4" s="64" t="s">
+      <c r="C4" s="59" t="s">
         <v>24</v>
       </c>
       <c r="D4" s="35" t="s">
@@ -1659,39 +1753,45 @@
       <c r="F4" s="49">
         <v>41466</v>
       </c>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35" t="s">
-        <v>86</v>
+      <c r="G4" s="76">
+        <v>41466</v>
+      </c>
+      <c r="H4" s="87" t="s">
+        <v>69</v>
       </c>
       <c r="I4" s="22" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" s="57" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="52">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" s="68" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="37">
         <v>2</v>
       </c>
-      <c r="C5" s="65"/>
-      <c r="D5" s="53" t="s">
+      <c r="C5" s="60"/>
+      <c r="D5" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="54">
+      <c r="E5" s="51">
         <v>41466</v>
       </c>
-      <c r="F5" s="55" t="s">
-        <v>98</v>
-      </c>
-      <c r="G5" s="53"/>
-      <c r="H5" s="53" t="s">
-        <v>90</v>
-      </c>
-      <c r="I5" s="56"/>
+      <c r="F5" s="39" t="s">
+        <v>81</v>
+      </c>
+      <c r="G5" s="39" t="s">
+        <v>81</v>
+      </c>
+      <c r="H5" s="88" t="s">
+        <v>73</v>
+      </c>
+      <c r="I5" s="22" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="6" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="37">
         <v>3</v>
       </c>
-      <c r="C6" s="65"/>
+      <c r="C6" s="60"/>
       <c r="D6" s="38" t="s">
         <v>27</v>
       </c>
@@ -1699,43 +1799,45 @@
         <v>41466</v>
       </c>
       <c r="F6" s="39" t="s">
-        <v>98</v>
-      </c>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="G6" s="39"/>
+      <c r="H6" s="88" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="22" t="s">
-        <v>91</v>
+      <c r="I6" s="98" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="7" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="37">
         <v>4</v>
       </c>
-      <c r="C7" s="65"/>
+      <c r="C7" s="60"/>
       <c r="D7" s="38" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="E7" s="51">
         <v>41466</v>
       </c>
-      <c r="F7" s="39" t="s">
-        <v>98</v>
-      </c>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38" t="s">
-        <v>86</v>
+      <c r="F7" s="51">
+        <v>41466</v>
+      </c>
+      <c r="G7" s="51">
+        <v>41466</v>
+      </c>
+      <c r="H7" s="88" t="s">
+        <v>69</v>
       </c>
       <c r="I7" s="22" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="37"/>
-      <c r="C8" s="65"/>
+      <c r="C8" s="60"/>
       <c r="D8" s="38" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="E8" s="51">
         <v>41497</v>
@@ -1743,19 +1845,21 @@
       <c r="F8" s="51">
         <v>41497</v>
       </c>
-      <c r="G8" s="38"/>
-      <c r="H8" s="38" t="s">
-        <v>86</v>
+      <c r="G8" s="51">
+        <v>41497</v>
+      </c>
+      <c r="H8" s="88" t="s">
+        <v>69</v>
       </c>
       <c r="I8" s="22" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="37">
         <v>5</v>
       </c>
-      <c r="C9" s="65"/>
+      <c r="C9" s="60"/>
       <c r="D9" s="38" t="s">
         <v>28</v>
       </c>
@@ -1763,21 +1867,23 @@
         <v>41466</v>
       </c>
       <c r="F9" s="39" t="s">
-        <v>98</v>
-      </c>
-      <c r="G9" s="38"/>
-      <c r="H9" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="G9" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="H9" s="88" t="s">
         <v>16</v>
       </c>
       <c r="I9" s="22" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="37">
         <v>6</v>
       </c>
-      <c r="C10" s="65"/>
+      <c r="C10" s="60"/>
       <c r="D10" s="38" t="s">
         <v>29</v>
       </c>
@@ -1785,21 +1891,23 @@
         <v>41466</v>
       </c>
       <c r="F10" s="39" t="s">
-        <v>98</v>
-      </c>
-      <c r="G10" s="38"/>
-      <c r="H10" s="38" t="s">
-        <v>87</v>
+        <v>81</v>
+      </c>
+      <c r="G10" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="H10" s="88" t="s">
+        <v>70</v>
       </c>
       <c r="I10" s="22" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="37">
         <v>7</v>
       </c>
-      <c r="C11" s="65"/>
+      <c r="C11" s="60"/>
       <c r="D11" s="38" t="s">
         <v>30</v>
       </c>
@@ -1807,21 +1915,23 @@
         <v>41466</v>
       </c>
       <c r="F11" s="39" t="s">
-        <v>98</v>
-      </c>
-      <c r="G11" s="38"/>
-      <c r="H11" s="38" t="s">
-        <v>88</v>
+        <v>81</v>
+      </c>
+      <c r="G11" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="H11" s="88" t="s">
+        <v>71</v>
       </c>
       <c r="I11" s="22" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="37">
         <v>8</v>
       </c>
-      <c r="C12" s="65"/>
+      <c r="C12" s="60"/>
       <c r="D12" s="38" t="s">
         <v>31</v>
       </c>
@@ -1829,21 +1939,23 @@
         <v>41466</v>
       </c>
       <c r="F12" s="39" t="s">
-        <v>98</v>
-      </c>
-      <c r="G12" s="38"/>
-      <c r="H12" s="38" t="s">
-        <v>90</v>
+        <v>81</v>
+      </c>
+      <c r="G12" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="H12" s="88" t="s">
+        <v>73</v>
       </c>
       <c r="I12" s="22" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="37">
         <v>9</v>
       </c>
-      <c r="C13" s="65"/>
+      <c r="C13" s="60"/>
       <c r="D13" s="38" t="s">
         <v>32</v>
       </c>
@@ -1851,997 +1963,1074 @@
         <v>41466</v>
       </c>
       <c r="F13" s="39" t="s">
-        <v>98</v>
-      </c>
-      <c r="G13" s="38"/>
-      <c r="H13" s="38" t="s">
-        <v>95</v>
+        <v>81</v>
+      </c>
+      <c r="G13" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="H13" s="88" t="s">
+        <v>78</v>
       </c>
       <c r="I13" s="22" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="37">
         <v>10</v>
       </c>
-      <c r="C14" s="65"/>
+      <c r="C14" s="60"/>
       <c r="D14" s="38" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="E14" s="51">
         <v>41466</v>
       </c>
       <c r="F14" s="39" t="s">
-        <v>98</v>
-      </c>
-      <c r="G14" s="38"/>
-      <c r="H14" s="38" t="s">
-        <v>89</v>
+        <v>81</v>
+      </c>
+      <c r="G14" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="H14" s="88" t="s">
+        <v>72</v>
       </c>
       <c r="I14" s="22" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="37">
         <v>11</v>
       </c>
-      <c r="C15" s="65"/>
+      <c r="C15" s="60"/>
       <c r="D15" s="38" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="E15" s="51">
         <v>41466</v>
       </c>
       <c r="F15" s="39" t="s">
-        <v>98</v>
-      </c>
-      <c r="G15" s="38"/>
-      <c r="H15" s="38" t="s">
-        <v>90</v>
+        <v>81</v>
+      </c>
+      <c r="G15" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="H15" s="88" t="s">
+        <v>73</v>
       </c>
       <c r="I15" s="22" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="40">
         <v>12</v>
       </c>
-      <c r="C16" s="66"/>
+      <c r="C16" s="61"/>
       <c r="D16" s="41" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="E16" s="50">
         <v>41466</v>
       </c>
       <c r="F16" s="39" t="s">
-        <v>98</v>
-      </c>
-      <c r="G16" s="41"/>
-      <c r="H16" s="41" t="s">
-        <v>90</v>
+        <v>81</v>
+      </c>
+      <c r="G16" s="42" t="s">
+        <v>92</v>
+      </c>
+      <c r="H16" s="89" t="s">
+        <v>73</v>
       </c>
       <c r="I16" s="22" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="20">
         <v>13</v>
       </c>
-      <c r="C17" s="67" t="s">
+      <c r="C17" s="62" t="s">
         <v>33</v>
       </c>
       <c r="D17" s="21" t="s">
         <v>34</v>
       </c>
       <c r="E17" s="31" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="F17" s="31" t="s">
-        <v>94</v>
-      </c>
-      <c r="G17" s="21"/>
-      <c r="H17" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="I17" s="28"/>
-    </row>
-    <row r="18" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+      <c r="G17" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="H17" s="90" t="s">
+        <v>72</v>
+      </c>
+      <c r="I17" s="22" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="23">
         <v>14</v>
       </c>
-      <c r="C18" s="68"/>
+      <c r="C18" s="63"/>
       <c r="D18" s="14" t="s">
         <v>35</v>
       </c>
       <c r="E18" s="17" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="F18" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="I18" s="24"/>
-    </row>
-    <row r="19" spans="2:9" ht="37.5" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+      <c r="G18" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="H18" s="90" t="s">
+        <v>69</v>
+      </c>
+      <c r="I18" s="22" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B19" s="23">
         <v>15</v>
       </c>
-      <c r="C19" s="68"/>
+      <c r="C19" s="63"/>
       <c r="D19" s="14" t="s">
         <v>36</v>
       </c>
       <c r="E19" s="17" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="F19" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="I19" s="24"/>
+        <v>75</v>
+      </c>
+      <c r="G19" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="H19" s="90" t="s">
+        <v>69</v>
+      </c>
+      <c r="I19" s="22" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="20" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B20" s="23">
         <v>16</v>
       </c>
-      <c r="C20" s="68"/>
+      <c r="C20" s="63"/>
       <c r="D20" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="24"/>
+      <c r="E20" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="F20" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="G20" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="H20" s="90" t="s">
+        <v>72</v>
+      </c>
+      <c r="I20" s="22" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="21" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B21" s="23">
         <v>17</v>
       </c>
-      <c r="C21" s="68"/>
+      <c r="C21" s="63"/>
       <c r="D21" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
+      <c r="E21" s="30">
+        <v>41619</v>
+      </c>
+      <c r="F21" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="G21" s="17"/>
+      <c r="H21" s="90" t="s">
+        <v>72</v>
+      </c>
       <c r="I21" s="24"/>
     </row>
     <row r="22" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B22" s="23">
         <v>18</v>
       </c>
-      <c r="C22" s="68"/>
+      <c r="C22" s="63"/>
       <c r="D22" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
+      <c r="E22" s="30">
+        <v>41619</v>
+      </c>
+      <c r="F22" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="G22" s="17"/>
+      <c r="H22" s="90" t="s">
+        <v>72</v>
+      </c>
       <c r="I22" s="24"/>
     </row>
     <row r="23" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B23" s="23">
         <v>19</v>
       </c>
-      <c r="C23" s="68"/>
+      <c r="C23" s="63"/>
       <c r="D23" s="14" t="s">
         <v>41</v>
       </c>
       <c r="E23" s="30">
         <v>41345</v>
       </c>
-      <c r="F23" s="17"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="I23" s="24"/>
+      <c r="F23" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="G23" s="17"/>
+      <c r="H23" s="90" t="s">
+        <v>69</v>
+      </c>
+      <c r="I23" s="99" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="24" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B24" s="23">
         <v>20</v>
       </c>
-      <c r="C24" s="68"/>
+      <c r="C24" s="63"/>
       <c r="D24" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="14"/>
+        <v>96</v>
+      </c>
+      <c r="E24" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="F24" s="30">
+        <v>41376</v>
+      </c>
+      <c r="G24" s="17"/>
+      <c r="H24" s="90" t="s">
+        <v>69</v>
+      </c>
       <c r="I24" s="24"/>
     </row>
     <row r="25" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B25" s="23">
         <v>21</v>
       </c>
-      <c r="C25" s="68"/>
+      <c r="C25" s="63"/>
       <c r="D25" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
+      <c r="E25" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="F25" s="30">
+        <v>41376</v>
+      </c>
+      <c r="G25" s="17"/>
+      <c r="H25" s="90" t="s">
+        <v>69</v>
+      </c>
       <c r="I25" s="24"/>
     </row>
     <row r="26" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B26" s="23">
         <v>22</v>
       </c>
-      <c r="C26" s="68"/>
+      <c r="C26" s="63"/>
       <c r="D26" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="14"/>
+      <c r="E26" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="F26" s="30">
+        <v>41377</v>
+      </c>
+      <c r="G26" s="17"/>
+      <c r="H26" s="90" t="s">
+        <v>69</v>
+      </c>
       <c r="I26" s="24"/>
     </row>
     <row r="27" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B27" s="23">
         <v>23</v>
       </c>
-      <c r="C27" s="68"/>
+      <c r="C27" s="63"/>
       <c r="D27" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="14"/>
+      <c r="E27" s="30">
+        <v>41406</v>
+      </c>
+      <c r="F27" s="30">
+        <v>41437</v>
+      </c>
+      <c r="G27" s="17"/>
+      <c r="H27" s="90" t="s">
+        <v>69</v>
+      </c>
       <c r="I27" s="24"/>
     </row>
     <row r="28" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B28" s="23">
         <v>24</v>
       </c>
-      <c r="C28" s="68"/>
+      <c r="C28" s="63"/>
       <c r="D28" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="14"/>
+      <c r="E28" s="30">
+        <v>41406</v>
+      </c>
+      <c r="F28" s="30">
+        <v>41437</v>
+      </c>
+      <c r="G28" s="17"/>
+      <c r="H28" s="90" t="s">
+        <v>69</v>
+      </c>
       <c r="I28" s="24"/>
     </row>
     <row r="29" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B29" s="23">
         <v>25</v>
       </c>
-      <c r="C29" s="68"/>
+      <c r="C29" s="63"/>
       <c r="D29" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="14"/>
-      <c r="H29" s="14"/>
+      <c r="E29" s="30">
+        <v>41406</v>
+      </c>
+      <c r="F29" s="30">
+        <v>41437</v>
+      </c>
+      <c r="G29" s="17"/>
+      <c r="H29" s="90" t="s">
+        <v>69</v>
+      </c>
       <c r="I29" s="24"/>
     </row>
     <row r="30" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B30" s="23">
         <v>26</v>
       </c>
-      <c r="C30" s="68"/>
+      <c r="C30" s="63"/>
       <c r="D30" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="14"/>
-      <c r="H30" s="14"/>
+      <c r="E30" s="30">
+        <v>41406</v>
+      </c>
+      <c r="F30" s="30">
+        <v>41437</v>
+      </c>
+      <c r="G30" s="17"/>
+      <c r="H30" s="90" t="s">
+        <v>69</v>
+      </c>
       <c r="I30" s="24"/>
     </row>
     <row r="31" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B31" s="23">
         <v>27</v>
       </c>
-      <c r="C31" s="68"/>
-      <c r="D31" s="58" t="s">
-        <v>49</v>
-      </c>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="14"/>
-      <c r="H31" s="14"/>
+      <c r="C31" s="63"/>
+      <c r="D31" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="E31" s="30">
+        <v>41620</v>
+      </c>
+      <c r="F31" s="30">
+        <v>41620</v>
+      </c>
+      <c r="G31" s="17"/>
+      <c r="H31" s="90" t="s">
+        <v>69</v>
+      </c>
       <c r="I31" s="24"/>
     </row>
-    <row r="32" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:9" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
       <c r="B32" s="23">
         <v>28</v>
       </c>
-      <c r="C32" s="68"/>
-      <c r="D32" s="58" t="s">
-        <v>50</v>
+      <c r="C32" s="63"/>
+      <c r="D32" s="52" t="s">
+        <v>49</v>
       </c>
       <c r="E32" s="17"/>
       <c r="F32" s="17"/>
-      <c r="G32" s="14"/>
-      <c r="H32" s="14"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="90" t="s">
+        <v>69</v>
+      </c>
       <c r="I32" s="24"/>
     </row>
-    <row r="33" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:10" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
       <c r="B33" s="23">
         <v>29</v>
       </c>
-      <c r="C33" s="68"/>
-      <c r="D33" s="58" t="s">
-        <v>51</v>
+      <c r="C33" s="63"/>
+      <c r="D33" s="52" t="s">
+        <v>50</v>
       </c>
       <c r="E33" s="17"/>
       <c r="F33" s="17"/>
-      <c r="G33" s="14"/>
-      <c r="H33" s="14"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="90" t="s">
+        <v>69</v>
+      </c>
       <c r="I33" s="24"/>
     </row>
-    <row r="34" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:10" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
       <c r="B34" s="23">
         <v>30</v>
       </c>
-      <c r="C34" s="68"/>
-      <c r="D34" s="58" t="s">
-        <v>52</v>
+      <c r="C34" s="63"/>
+      <c r="D34" s="52" t="s">
+        <v>51</v>
       </c>
       <c r="E34" s="17"/>
       <c r="F34" s="17"/>
-      <c r="G34" s="14"/>
-      <c r="H34" s="14"/>
+      <c r="G34" s="17"/>
+      <c r="H34" s="90" t="s">
+        <v>69</v>
+      </c>
       <c r="I34" s="24"/>
     </row>
-    <row r="35" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="25">
+    <row r="35" spans="2:10" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="23">
         <v>31</v>
       </c>
-      <c r="C35" s="69"/>
-      <c r="D35" s="26" t="s">
+      <c r="C35" s="63"/>
+      <c r="D35" s="52" t="s">
+        <v>52</v>
+      </c>
+      <c r="E35" s="17"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="90" t="s">
+        <v>69</v>
+      </c>
+      <c r="I35" s="24"/>
+    </row>
+    <row r="36" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B36" s="23">
+        <v>32</v>
+      </c>
+      <c r="C36" s="64"/>
+      <c r="D36" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="E35" s="32" t="s">
+      <c r="E36" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="F36" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="G36" s="32"/>
+      <c r="H36" s="90" t="s">
+        <v>69</v>
+      </c>
+      <c r="I36" s="27"/>
+    </row>
+    <row r="37" spans="2:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="23">
+        <v>33</v>
+      </c>
+      <c r="C37" s="59" t="s">
+        <v>54</v>
+      </c>
+      <c r="D37" s="38" t="s">
+        <v>94</v>
+      </c>
+      <c r="E37" s="84" t="s">
+        <v>82</v>
+      </c>
+      <c r="F37" s="36" t="s">
+        <v>77</v>
+      </c>
+      <c r="G37" s="36" t="s">
+        <v>93</v>
+      </c>
+      <c r="H37" s="87" t="s">
+        <v>78</v>
+      </c>
+      <c r="I37" s="43"/>
+    </row>
+    <row r="38" spans="2:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="23">
+        <v>34</v>
+      </c>
+      <c r="C38" s="60"/>
+      <c r="D38" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="E38" s="39" t="s">
+        <v>85</v>
+      </c>
+      <c r="F38" s="82" t="s">
+        <v>85</v>
+      </c>
+      <c r="G38" s="82"/>
+      <c r="H38" s="91" t="s">
+        <v>69</v>
+      </c>
+      <c r="I38" s="83"/>
+    </row>
+    <row r="39" spans="2:10" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="B39" s="23">
+        <v>35</v>
+      </c>
+      <c r="C39" s="60"/>
+      <c r="D39" s="81" t="s">
+        <v>57</v>
+      </c>
+      <c r="E39" s="51">
+        <v>41640</v>
+      </c>
+      <c r="F39" s="51">
+        <v>41365</v>
+      </c>
+      <c r="G39" s="39"/>
+      <c r="H39" s="88"/>
+      <c r="I39" s="44"/>
+    </row>
+    <row r="40" spans="2:10" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="B40" s="23">
+        <v>36</v>
+      </c>
+      <c r="C40" s="60"/>
+      <c r="D40" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="E40" s="51">
+        <v>41640</v>
+      </c>
+      <c r="F40" s="51">
+        <v>41365</v>
+      </c>
+      <c r="G40" s="39"/>
+      <c r="H40" s="88"/>
+      <c r="I40" s="44"/>
+    </row>
+    <row r="41" spans="2:10" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="B41" s="23">
+        <v>37</v>
+      </c>
+      <c r="C41" s="60"/>
+      <c r="D41" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="E41" s="51">
+        <v>41640</v>
+      </c>
+      <c r="F41" s="51">
+        <v>41365</v>
+      </c>
+      <c r="G41" s="39"/>
+      <c r="H41" s="88"/>
+      <c r="I41" s="44"/>
+    </row>
+    <row r="42" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="23">
+        <v>38</v>
+      </c>
+      <c r="C42" s="60"/>
+      <c r="D42" s="38" t="s">
+        <v>87</v>
+      </c>
+      <c r="E42" s="51">
+        <v>41760</v>
+      </c>
+      <c r="F42" s="51">
+        <v>41518</v>
+      </c>
+      <c r="G42" s="39"/>
+      <c r="H42" s="88"/>
+      <c r="I42" s="44"/>
+    </row>
+    <row r="43" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="23">
+        <v>39</v>
+      </c>
+      <c r="C43" s="60"/>
+      <c r="D43" s="38" t="s">
+        <v>88</v>
+      </c>
+      <c r="E43" s="51">
+        <v>41760</v>
+      </c>
+      <c r="F43" s="51">
+        <v>41518</v>
+      </c>
+      <c r="G43" s="39"/>
+      <c r="H43" s="88"/>
+      <c r="I43" s="44"/>
+    </row>
+    <row r="44" spans="2:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="23">
+        <v>40</v>
+      </c>
+      <c r="C44" s="69"/>
+      <c r="D44" s="53" t="s">
+        <v>61</v>
+      </c>
+      <c r="E44" s="85">
+        <v>41913</v>
+      </c>
+      <c r="F44" s="85">
+        <v>41944</v>
+      </c>
+      <c r="G44" s="54"/>
+      <c r="H44" s="88"/>
+      <c r="I44" s="55"/>
+    </row>
+    <row r="45" spans="2:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="23">
+        <v>41</v>
+      </c>
+      <c r="C45" s="69"/>
+      <c r="D45" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="E45" s="51">
+        <v>41974</v>
+      </c>
+      <c r="F45" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="G45" s="39"/>
+      <c r="H45" s="91" t="s">
+        <v>69</v>
+      </c>
+      <c r="I45" s="71"/>
+      <c r="J45" s="72"/>
+    </row>
+    <row r="46" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="23">
+        <v>42</v>
+      </c>
+      <c r="C46" s="69"/>
+      <c r="D46" s="53" t="s">
+        <v>56</v>
+      </c>
+      <c r="E46" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="F46" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="G46" s="39"/>
+      <c r="H46" s="91" t="s">
+        <v>69</v>
+      </c>
+      <c r="I46" s="71"/>
+      <c r="J46" s="72"/>
+    </row>
+    <row r="47" spans="2:10" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B47" s="23">
+        <v>43</v>
+      </c>
+      <c r="C47" s="70"/>
+      <c r="D47" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="E47" s="54" t="s">
         <v>100</v>
       </c>
-      <c r="F35" s="32" t="s">
-        <v>100</v>
-      </c>
-      <c r="G35" s="26"/>
-      <c r="H35" s="26"/>
-      <c r="I35" s="27"/>
-    </row>
-    <row r="36" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="34">
-        <v>32</v>
-      </c>
-      <c r="C36" s="64" t="s">
-        <v>54</v>
-      </c>
-      <c r="D36" s="35" t="s">
-        <v>57</v>
-      </c>
-      <c r="E36" s="36" t="s">
+      <c r="F47" s="54" t="s">
+        <v>101</v>
+      </c>
+      <c r="G47" s="54"/>
+      <c r="H47" s="89" t="s">
+        <v>69</v>
+      </c>
+      <c r="I47" s="73"/>
+      <c r="J47" s="72"/>
+    </row>
+    <row r="48" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="23">
+        <v>44</v>
+      </c>
+      <c r="C48" s="62" t="s">
         <v>102</v>
       </c>
-      <c r="F36" s="36"/>
-      <c r="G36" s="35"/>
-      <c r="H36" s="35"/>
-      <c r="I36" s="43"/>
-    </row>
-    <row r="37" spans="2:9" ht="37.5" x14ac:dyDescent="0.3">
-      <c r="B37" s="37">
-        <v>33</v>
-      </c>
-      <c r="C37" s="65"/>
-      <c r="D37" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="E37" s="39"/>
-      <c r="F37" s="39"/>
-      <c r="G37" s="38"/>
-      <c r="H37" s="38"/>
-      <c r="I37" s="44"/>
-    </row>
-    <row r="38" spans="2:9" ht="37.5" x14ac:dyDescent="0.3">
-      <c r="B38" s="37">
-        <v>34</v>
-      </c>
-      <c r="C38" s="65"/>
-      <c r="D38" s="38" t="s">
-        <v>59</v>
-      </c>
-      <c r="E38" s="39"/>
-      <c r="F38" s="39"/>
-      <c r="G38" s="38"/>
-      <c r="H38" s="38"/>
-      <c r="I38" s="44"/>
-    </row>
-    <row r="39" spans="2:9" ht="37.5" x14ac:dyDescent="0.3">
-      <c r="B39" s="37">
-        <v>35</v>
-      </c>
-      <c r="C39" s="65"/>
-      <c r="D39" s="38" t="s">
-        <v>55</v>
-      </c>
-      <c r="E39" s="39"/>
-      <c r="F39" s="39"/>
-      <c r="G39" s="38"/>
-      <c r="H39" s="38"/>
-      <c r="I39" s="44"/>
-    </row>
-    <row r="40" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="37">
-        <v>36</v>
-      </c>
-      <c r="C40" s="65"/>
-      <c r="D40" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="E40" s="39"/>
-      <c r="F40" s="39"/>
-      <c r="G40" s="38"/>
-      <c r="H40" s="38"/>
-      <c r="I40" s="44"/>
-    </row>
-    <row r="41" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="37">
-        <v>37</v>
-      </c>
-      <c r="C41" s="65"/>
-      <c r="D41" s="38" t="s">
-        <v>60</v>
-      </c>
-      <c r="E41" s="39"/>
-      <c r="F41" s="39"/>
-      <c r="G41" s="38"/>
-      <c r="H41" s="38"/>
-      <c r="I41" s="44"/>
-    </row>
-    <row r="42" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="59">
-        <v>38</v>
-      </c>
-      <c r="C42" s="65"/>
-      <c r="D42" s="73" t="s">
+      <c r="D48" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="E48" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="F48" s="31"/>
+      <c r="G48" s="31"/>
+      <c r="H48" s="92"/>
+      <c r="I48" s="28"/>
+    </row>
+    <row r="49" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="23">
+        <v>45</v>
+      </c>
+      <c r="C49" s="63"/>
+      <c r="D49" s="14" t="s">
         <v>62</v>
-      </c>
-      <c r="E42" s="74"/>
-      <c r="F42" s="74"/>
-      <c r="G42" s="73"/>
-      <c r="H42" s="73"/>
-      <c r="I42" s="75"/>
-    </row>
-    <row r="43" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="38"/>
-      <c r="C43" s="65"/>
-      <c r="D43" s="38" t="s">
-        <v>103</v>
-      </c>
-      <c r="E43" s="39"/>
-      <c r="F43" s="39"/>
-      <c r="G43" s="38"/>
-      <c r="H43" s="38"/>
-      <c r="I43" s="39"/>
-    </row>
-    <row r="44" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="38"/>
-      <c r="C44" s="65"/>
-      <c r="D44" s="38" t="s">
-        <v>104</v>
-      </c>
-      <c r="E44" s="39"/>
-      <c r="F44" s="39"/>
-      <c r="G44" s="38"/>
-      <c r="H44" s="38"/>
-      <c r="I44" s="39"/>
-    </row>
-    <row r="45" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="38"/>
-      <c r="C45" s="65"/>
-      <c r="D45" s="38" t="s">
-        <v>105</v>
-      </c>
-      <c r="E45" s="39"/>
-      <c r="F45" s="39"/>
-      <c r="G45" s="38"/>
-      <c r="H45" s="38"/>
-      <c r="I45" s="39"/>
-    </row>
-    <row r="46" spans="2:9" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B46" s="38"/>
-      <c r="C46" s="66"/>
-      <c r="D46" s="38"/>
-      <c r="E46" s="39"/>
-      <c r="F46" s="39"/>
-      <c r="G46" s="38"/>
-      <c r="H46" s="38"/>
-      <c r="I46" s="39"/>
-    </row>
-    <row r="47" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B47" s="60">
-        <v>39</v>
-      </c>
-      <c r="C47" s="67" t="s">
-        <v>107</v>
-      </c>
-      <c r="D47" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="E47" s="19" t="s">
-        <v>101</v>
-      </c>
-      <c r="F47" s="19"/>
-      <c r="G47" s="18"/>
-      <c r="H47" s="18"/>
-      <c r="I47" s="76"/>
-    </row>
-    <row r="48" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B48" s="23">
-        <v>40</v>
-      </c>
-      <c r="C48" s="68"/>
-      <c r="D48" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="E48" s="17"/>
-      <c r="F48" s="17"/>
-      <c r="G48" s="14"/>
-      <c r="H48" s="14"/>
-      <c r="I48" s="24"/>
-    </row>
-    <row r="49" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B49" s="23">
-        <v>41</v>
-      </c>
-      <c r="C49" s="68"/>
-      <c r="D49" s="14" t="s">
-        <v>64</v>
       </c>
       <c r="E49" s="17"/>
       <c r="F49" s="17"/>
-      <c r="G49" s="14"/>
-      <c r="H49" s="14"/>
+      <c r="G49" s="17"/>
+      <c r="H49" s="90"/>
       <c r="I49" s="24"/>
     </row>
-    <row r="50" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B50" s="23">
-        <v>42</v>
-      </c>
-      <c r="C50" s="68"/>
+        <v>46</v>
+      </c>
+      <c r="C50" s="63"/>
       <c r="D50" s="14" t="s">
-        <v>65</v>
+        <v>104</v>
       </c>
       <c r="E50" s="17"/>
       <c r="F50" s="17"/>
-      <c r="G50" s="14"/>
-      <c r="H50" s="14"/>
+      <c r="G50" s="17"/>
+      <c r="H50" s="90"/>
       <c r="I50" s="24"/>
     </row>
-    <row r="51" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B51" s="23">
-        <v>43</v>
-      </c>
-      <c r="C51" s="68"/>
+        <v>47</v>
+      </c>
+      <c r="C51" s="63"/>
       <c r="D51" s="14" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="E51" s="17"/>
       <c r="F51" s="17"/>
-      <c r="G51" s="14"/>
-      <c r="H51" s="14"/>
+      <c r="G51" s="17"/>
+      <c r="H51" s="90"/>
       <c r="I51" s="24"/>
     </row>
-    <row r="52" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B52" s="23">
-        <v>44</v>
-      </c>
-      <c r="C52" s="68"/>
+        <v>48</v>
+      </c>
+      <c r="C52" s="63"/>
       <c r="D52" s="14" t="s">
-        <v>66</v>
+        <v>89</v>
       </c>
       <c r="E52" s="17"/>
       <c r="F52" s="17"/>
-      <c r="G52" s="14"/>
-      <c r="H52" s="14"/>
+      <c r="G52" s="17"/>
+      <c r="H52" s="90"/>
       <c r="I52" s="24"/>
     </row>
-    <row r="53" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B53" s="25">
-        <v>45</v>
-      </c>
-      <c r="C53" s="69"/>
-      <c r="D53" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="E53" s="32"/>
-      <c r="F53" s="32"/>
-      <c r="G53" s="26"/>
-      <c r="H53" s="26"/>
-      <c r="I53" s="27"/>
-    </row>
-    <row r="54" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B54" s="34">
-        <v>46</v>
-      </c>
-      <c r="C54" s="64" t="s">
-        <v>67</v>
-      </c>
-      <c r="D54" s="35" t="s">
-        <v>68</v>
-      </c>
-      <c r="E54" s="36"/>
-      <c r="F54" s="36"/>
-      <c r="G54" s="35"/>
-      <c r="H54" s="35"/>
-      <c r="I54" s="43"/>
-    </row>
-    <row r="55" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B55" s="37">
-        <v>47</v>
-      </c>
-      <c r="C55" s="65"/>
-      <c r="D55" s="38" t="s">
-        <v>63</v>
-      </c>
-      <c r="E55" s="39"/>
-      <c r="F55" s="39"/>
-      <c r="G55" s="38"/>
-      <c r="H55" s="38"/>
-      <c r="I55" s="44"/>
+    <row r="53" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B53" s="23">
+        <v>49</v>
+      </c>
+      <c r="C53" s="63"/>
+      <c r="D53" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="E53" s="78"/>
+      <c r="F53" s="78"/>
+      <c r="G53" s="17"/>
+      <c r="H53" s="93"/>
+      <c r="I53" s="79"/>
+    </row>
+    <row r="54" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B54" s="23">
+        <v>50</v>
+      </c>
+      <c r="C54" s="63"/>
+      <c r="D54" s="77" t="s">
+        <v>105</v>
+      </c>
+      <c r="E54" s="80"/>
+      <c r="F54" s="17"/>
+      <c r="G54" s="17"/>
+      <c r="H54" s="94"/>
+      <c r="I54" s="79"/>
+    </row>
+    <row r="55" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B55" s="23">
+        <v>51</v>
+      </c>
+      <c r="C55" s="64"/>
+      <c r="D55" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="E55" s="74"/>
+      <c r="F55" s="74"/>
+      <c r="G55" s="32"/>
+      <c r="H55" s="95"/>
+      <c r="I55" s="27"/>
     </row>
     <row r="56" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B56" s="37">
-        <v>48</v>
-      </c>
-      <c r="C56" s="65"/>
-      <c r="D56" s="38" t="s">
-        <v>69</v>
-      </c>
-      <c r="E56" s="39"/>
-      <c r="F56" s="39"/>
-      <c r="G56" s="38"/>
-      <c r="H56" s="38"/>
-      <c r="I56" s="44"/>
+      <c r="B56" s="34"/>
+      <c r="C56" s="59"/>
+      <c r="D56" s="35"/>
+      <c r="E56" s="36"/>
+      <c r="F56" s="36"/>
+      <c r="G56" s="36"/>
+      <c r="H56" s="87"/>
+      <c r="I56" s="43"/>
     </row>
     <row r="57" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B57" s="37">
-        <v>49</v>
-      </c>
-      <c r="C57" s="65"/>
-      <c r="D57" s="38" t="s">
-        <v>65</v>
-      </c>
+      <c r="B57" s="37"/>
+      <c r="C57" s="60"/>
+      <c r="D57" s="38"/>
       <c r="E57" s="39"/>
       <c r="F57" s="39"/>
-      <c r="G57" s="38"/>
-      <c r="H57" s="38"/>
+      <c r="G57" s="39"/>
+      <c r="H57" s="88"/>
       <c r="I57" s="44"/>
     </row>
-    <row r="58" spans="2:9" ht="37.5" x14ac:dyDescent="0.3">
-      <c r="B58" s="37">
-        <v>50</v>
-      </c>
-      <c r="C58" s="65"/>
-      <c r="D58" s="38" t="s">
-        <v>70</v>
-      </c>
+    <row r="58" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B58" s="37"/>
+      <c r="C58" s="60"/>
+      <c r="D58" s="38"/>
       <c r="E58" s="39"/>
       <c r="F58" s="39"/>
-      <c r="G58" s="38"/>
-      <c r="H58" s="38"/>
+      <c r="G58" s="39"/>
+      <c r="H58" s="88"/>
       <c r="I58" s="44"/>
     </row>
     <row r="59" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B59" s="37">
-        <v>51</v>
-      </c>
-      <c r="C59" s="65"/>
-      <c r="D59" s="38" t="s">
-        <v>81</v>
-      </c>
+      <c r="B59" s="37"/>
+      <c r="C59" s="60"/>
+      <c r="D59" s="38"/>
       <c r="E59" s="39"/>
       <c r="F59" s="39"/>
-      <c r="G59" s="38"/>
-      <c r="H59" s="38"/>
+      <c r="G59" s="39"/>
+      <c r="H59" s="88"/>
       <c r="I59" s="44"/>
     </row>
     <row r="60" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B60" s="37">
-        <v>52</v>
-      </c>
-      <c r="C60" s="65"/>
-      <c r="D60" s="38" t="s">
-        <v>106</v>
-      </c>
+      <c r="B60" s="37"/>
+      <c r="C60" s="60"/>
+      <c r="D60" s="38"/>
       <c r="E60" s="39"/>
       <c r="F60" s="39"/>
-      <c r="G60" s="38"/>
-      <c r="H60" s="38"/>
+      <c r="G60" s="39"/>
+      <c r="H60" s="88"/>
       <c r="I60" s="44"/>
     </row>
-    <row r="61" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B61" s="40">
-        <v>53</v>
-      </c>
-      <c r="C61" s="66"/>
-      <c r="D61" s="41" t="s">
-        <v>78</v>
-      </c>
-      <c r="E61" s="42"/>
-      <c r="F61" s="42"/>
-      <c r="G61" s="41"/>
-      <c r="H61" s="41"/>
-      <c r="I61" s="45"/>
+    <row r="61" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B61" s="37"/>
+      <c r="C61" s="60"/>
+      <c r="D61" s="38"/>
+      <c r="E61" s="39"/>
+      <c r="F61" s="39"/>
+      <c r="G61" s="39"/>
+      <c r="H61" s="88"/>
+      <c r="I61" s="44"/>
     </row>
     <row r="62" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B62" s="20">
-        <v>54</v>
-      </c>
-      <c r="C62" s="67" t="s">
-        <v>75</v>
-      </c>
-      <c r="D62" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="E62" s="31"/>
-      <c r="F62" s="31"/>
-      <c r="G62" s="21"/>
-      <c r="H62" s="21"/>
-      <c r="I62" s="28"/>
-    </row>
-    <row r="63" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B63" s="23">
-        <v>55</v>
-      </c>
-      <c r="C63" s="68"/>
-      <c r="D63" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="E63" s="17"/>
-      <c r="F63" s="17"/>
-      <c r="G63" s="14"/>
-      <c r="H63" s="14"/>
-      <c r="I63" s="24"/>
+      <c r="B62" s="37"/>
+      <c r="C62" s="60"/>
+      <c r="D62" s="38"/>
+      <c r="E62" s="39"/>
+      <c r="F62" s="39"/>
+      <c r="G62" s="39"/>
+      <c r="H62" s="88"/>
+      <c r="I62" s="44"/>
+    </row>
+    <row r="63" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B63" s="40"/>
+      <c r="C63" s="61"/>
+      <c r="D63" s="41"/>
+      <c r="E63" s="42"/>
+      <c r="F63" s="42"/>
+      <c r="G63" s="42"/>
+      <c r="H63" s="89"/>
+      <c r="I63" s="45"/>
     </row>
     <row r="64" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B64" s="23">
-        <v>56</v>
-      </c>
-      <c r="C64" s="68"/>
-      <c r="D64" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="E64" s="17"/>
-      <c r="F64" s="17"/>
-      <c r="G64" s="14"/>
-      <c r="H64" s="14"/>
-      <c r="I64" s="24"/>
+      <c r="B64" s="20"/>
+      <c r="C64" s="62"/>
+      <c r="D64" s="21"/>
+      <c r="E64" s="31"/>
+      <c r="F64" s="31"/>
+      <c r="G64" s="31"/>
+      <c r="H64" s="96"/>
+      <c r="I64" s="28"/>
     </row>
     <row r="65" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B65" s="23">
-        <v>57</v>
-      </c>
-      <c r="C65" s="68"/>
-      <c r="D65" s="14" t="s">
-        <v>65</v>
-      </c>
+      <c r="B65" s="23"/>
+      <c r="C65" s="63"/>
+      <c r="D65" s="14"/>
       <c r="E65" s="17"/>
       <c r="F65" s="17"/>
-      <c r="G65" s="14"/>
-      <c r="H65" s="14"/>
+      <c r="G65" s="17"/>
+      <c r="H65" s="90"/>
       <c r="I65" s="24"/>
     </row>
-    <row r="66" spans="2:9" ht="37.5" x14ac:dyDescent="0.3">
-      <c r="B66" s="23">
-        <v>58</v>
-      </c>
-      <c r="C66" s="68"/>
-      <c r="D66" s="14" t="s">
-        <v>71</v>
-      </c>
+    <row r="66" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B66" s="23"/>
+      <c r="C66" s="63"/>
+      <c r="D66" s="14"/>
       <c r="E66" s="17"/>
       <c r="F66" s="17"/>
-      <c r="G66" s="14"/>
-      <c r="H66" s="14"/>
+      <c r="G66" s="17"/>
+      <c r="H66" s="90"/>
       <c r="I66" s="24"/>
     </row>
     <row r="67" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B67" s="23">
-        <v>59</v>
-      </c>
-      <c r="C67" s="68"/>
-      <c r="D67" s="14" t="s">
-        <v>81</v>
-      </c>
+      <c r="B67" s="23"/>
+      <c r="C67" s="63"/>
+      <c r="D67" s="14"/>
       <c r="E67" s="17"/>
       <c r="F67" s="17"/>
-      <c r="G67" s="14"/>
-      <c r="H67" s="14"/>
+      <c r="G67" s="17"/>
+      <c r="H67" s="90"/>
       <c r="I67" s="24"/>
     </row>
     <row r="68" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B68" s="23">
-        <v>60</v>
-      </c>
-      <c r="C68" s="68"/>
-      <c r="D68" s="14" t="s">
-        <v>74</v>
-      </c>
+      <c r="B68" s="23"/>
+      <c r="C68" s="63"/>
+      <c r="D68" s="14"/>
       <c r="E68" s="17"/>
       <c r="F68" s="17"/>
-      <c r="G68" s="14"/>
-      <c r="H68" s="14"/>
+      <c r="G68" s="17"/>
+      <c r="H68" s="90"/>
       <c r="I68" s="24"/>
     </row>
-    <row r="69" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B69" s="25">
-        <v>61</v>
-      </c>
-      <c r="C69" s="69"/>
-      <c r="D69" s="26" t="s">
-        <v>79</v>
-      </c>
-      <c r="E69" s="32"/>
-      <c r="F69" s="32"/>
-      <c r="G69" s="26"/>
-      <c r="H69" s="26"/>
-      <c r="I69" s="27"/>
+    <row r="69" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B69" s="23"/>
+      <c r="C69" s="63"/>
+      <c r="D69" s="14"/>
+      <c r="E69" s="17"/>
+      <c r="F69" s="17"/>
+      <c r="G69" s="17"/>
+      <c r="H69" s="90"/>
+      <c r="I69" s="24"/>
     </row>
     <row r="70" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B70" s="34">
-        <v>62</v>
-      </c>
-      <c r="C70" s="64" t="s">
-        <v>76</v>
-      </c>
-      <c r="D70" s="35" t="s">
-        <v>72</v>
-      </c>
-      <c r="E70" s="36"/>
-      <c r="F70" s="36"/>
-      <c r="G70" s="35"/>
-      <c r="H70" s="35"/>
-      <c r="I70" s="43"/>
-    </row>
-    <row r="71" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B71" s="37">
-        <v>63</v>
-      </c>
-      <c r="C71" s="65"/>
-      <c r="D71" s="38" t="s">
-        <v>63</v>
-      </c>
-      <c r="E71" s="39"/>
-      <c r="F71" s="39"/>
-      <c r="G71" s="38"/>
-      <c r="H71" s="38"/>
-      <c r="I71" s="44"/>
+      <c r="B70" s="23"/>
+      <c r="C70" s="63"/>
+      <c r="D70" s="14"/>
+      <c r="E70" s="17"/>
+      <c r="F70" s="17"/>
+      <c r="G70" s="17"/>
+      <c r="H70" s="90"/>
+      <c r="I70" s="24"/>
+    </row>
+    <row r="71" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B71" s="25"/>
+      <c r="C71" s="64"/>
+      <c r="D71" s="26"/>
+      <c r="E71" s="32"/>
+      <c r="F71" s="32"/>
+      <c r="G71" s="32"/>
+      <c r="H71" s="95"/>
+      <c r="I71" s="27"/>
     </row>
     <row r="72" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B72" s="37">
-        <v>64</v>
-      </c>
-      <c r="C72" s="65"/>
-      <c r="D72" s="38" t="s">
-        <v>73</v>
-      </c>
-      <c r="E72" s="39"/>
-      <c r="F72" s="39"/>
-      <c r="G72" s="38"/>
-      <c r="H72" s="38"/>
-      <c r="I72" s="44"/>
+      <c r="B72" s="34"/>
+      <c r="C72" s="59"/>
+      <c r="D72" s="35"/>
+      <c r="E72" s="36"/>
+      <c r="F72" s="36"/>
+      <c r="G72" s="36"/>
+      <c r="H72" s="87"/>
+      <c r="I72" s="43"/>
     </row>
     <row r="73" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B73" s="37">
-        <v>65</v>
-      </c>
-      <c r="C73" s="65"/>
-      <c r="D73" s="38" t="s">
-        <v>65</v>
-      </c>
+      <c r="B73" s="37"/>
+      <c r="C73" s="60"/>
+      <c r="D73" s="38"/>
       <c r="E73" s="39"/>
       <c r="F73" s="39"/>
-      <c r="G73" s="38"/>
-      <c r="H73" s="38"/>
+      <c r="G73" s="39"/>
+      <c r="H73" s="88"/>
       <c r="I73" s="44"/>
     </row>
-    <row r="74" spans="2:9" ht="37.5" x14ac:dyDescent="0.3">
-      <c r="B74" s="37">
-        <v>66</v>
-      </c>
-      <c r="C74" s="65"/>
-      <c r="D74" s="38" t="s">
-        <v>71</v>
-      </c>
+    <row r="74" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B74" s="37"/>
+      <c r="C74" s="60"/>
+      <c r="D74" s="38"/>
       <c r="E74" s="39"/>
       <c r="F74" s="39"/>
-      <c r="G74" s="38"/>
-      <c r="H74" s="38"/>
+      <c r="G74" s="39"/>
+      <c r="H74" s="88"/>
       <c r="I74" s="44"/>
     </row>
     <row r="75" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B75" s="37">
-        <v>67</v>
-      </c>
-      <c r="C75" s="65"/>
-      <c r="D75" s="38" t="s">
-        <v>81</v>
-      </c>
+      <c r="B75" s="37"/>
+      <c r="C75" s="60"/>
+      <c r="D75" s="38"/>
       <c r="E75" s="39"/>
       <c r="F75" s="39"/>
-      <c r="G75" s="38"/>
-      <c r="H75" s="38"/>
+      <c r="G75" s="39"/>
+      <c r="H75" s="88"/>
       <c r="I75" s="44"/>
     </row>
     <row r="76" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B76" s="37">
-        <v>68</v>
-      </c>
-      <c r="C76" s="65"/>
-      <c r="D76" s="38" t="s">
-        <v>74</v>
-      </c>
+      <c r="B76" s="37"/>
+      <c r="C76" s="60"/>
+      <c r="D76" s="38"/>
       <c r="E76" s="39"/>
       <c r="F76" s="39"/>
-      <c r="G76" s="38"/>
-      <c r="H76" s="38"/>
+      <c r="G76" s="39"/>
+      <c r="H76" s="88"/>
       <c r="I76" s="44"/>
     </row>
-    <row r="77" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B77" s="40">
-        <v>69</v>
-      </c>
-      <c r="C77" s="66"/>
-      <c r="D77" s="41" t="s">
-        <v>80</v>
-      </c>
-      <c r="E77" s="42"/>
-      <c r="F77" s="42"/>
-      <c r="G77" s="41"/>
-      <c r="H77" s="41"/>
-      <c r="I77" s="45"/>
-    </row>
-    <row r="78" spans="2:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="B78" s="18"/>
-      <c r="C78" s="29"/>
-      <c r="D78" s="18"/>
-      <c r="E78" s="19"/>
-      <c r="F78" s="19"/>
-      <c r="G78" s="18"/>
-      <c r="H78" s="18"/>
-      <c r="I78" s="19"/>
-    </row>
-    <row r="79" spans="2:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="B79" s="14"/>
-      <c r="C79" s="16"/>
-      <c r="D79" s="14"/>
-      <c r="E79" s="17"/>
-      <c r="F79" s="17"/>
-      <c r="G79" s="14"/>
-      <c r="H79" s="14"/>
-      <c r="I79" s="17"/>
+    <row r="77" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B77" s="37"/>
+      <c r="C77" s="60"/>
+      <c r="D77" s="38"/>
+      <c r="E77" s="39"/>
+      <c r="F77" s="39"/>
+      <c r="G77" s="39"/>
+      <c r="H77" s="88"/>
+      <c r="I77" s="44"/>
+    </row>
+    <row r="78" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B78" s="37"/>
+      <c r="C78" s="60"/>
+      <c r="D78" s="38"/>
+      <c r="E78" s="39"/>
+      <c r="F78" s="39"/>
+      <c r="G78" s="39"/>
+      <c r="H78" s="88"/>
+      <c r="I78" s="44"/>
+    </row>
+    <row r="79" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B79" s="40"/>
+      <c r="C79" s="61"/>
+      <c r="D79" s="41"/>
+      <c r="E79" s="42"/>
+      <c r="F79" s="42"/>
+      <c r="G79" s="42"/>
+      <c r="H79" s="89"/>
+      <c r="I79" s="45"/>
     </row>
     <row r="80" spans="2:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="B80" s="14"/>
-      <c r="C80" s="16"/>
-      <c r="D80" s="14"/>
-      <c r="E80" s="17"/>
-      <c r="F80" s="17"/>
-      <c r="G80" s="14"/>
-      <c r="H80" s="14"/>
-      <c r="I80" s="17"/>
+      <c r="B80" s="18"/>
+      <c r="C80" s="29"/>
+      <c r="D80" s="18"/>
+      <c r="E80" s="19"/>
+      <c r="F80" s="19"/>
+      <c r="G80" s="19"/>
+      <c r="H80" s="92"/>
+      <c r="I80" s="19"/>
     </row>
     <row r="81" spans="2:9" ht="21" x14ac:dyDescent="0.35">
       <c r="B81" s="14"/>
@@ -2849,8 +3038,8 @@
       <c r="D81" s="14"/>
       <c r="E81" s="17"/>
       <c r="F81" s="17"/>
-      <c r="G81" s="14"/>
-      <c r="H81" s="14"/>
+      <c r="G81" s="17"/>
+      <c r="H81" s="90"/>
       <c r="I81" s="17"/>
     </row>
     <row r="82" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -2859,8 +3048,8 @@
       <c r="D82" s="14"/>
       <c r="E82" s="17"/>
       <c r="F82" s="17"/>
-      <c r="G82" s="14"/>
-      <c r="H82" s="14"/>
+      <c r="G82" s="17"/>
+      <c r="H82" s="90"/>
       <c r="I82" s="17"/>
     </row>
     <row r="83" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -2869,8 +3058,8 @@
       <c r="D83" s="14"/>
       <c r="E83" s="17"/>
       <c r="F83" s="17"/>
-      <c r="G83" s="14"/>
-      <c r="H83" s="14"/>
+      <c r="G83" s="17"/>
+      <c r="H83" s="90"/>
       <c r="I83" s="17"/>
     </row>
     <row r="84" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -2879,8 +3068,8 @@
       <c r="D84" s="14"/>
       <c r="E84" s="17"/>
       <c r="F84" s="17"/>
-      <c r="G84" s="14"/>
-      <c r="H84" s="14"/>
+      <c r="G84" s="17"/>
+      <c r="H84" s="90"/>
       <c r="I84" s="17"/>
     </row>
     <row r="85" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -2889,8 +3078,8 @@
       <c r="D85" s="14"/>
       <c r="E85" s="17"/>
       <c r="F85" s="17"/>
-      <c r="G85" s="14"/>
-      <c r="H85" s="14"/>
+      <c r="G85" s="17"/>
+      <c r="H85" s="90"/>
       <c r="I85" s="17"/>
     </row>
     <row r="86" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -2899,8 +3088,8 @@
       <c r="D86" s="14"/>
       <c r="E86" s="17"/>
       <c r="F86" s="17"/>
-      <c r="G86" s="14"/>
-      <c r="H86" s="14"/>
+      <c r="G86" s="17"/>
+      <c r="H86" s="90"/>
       <c r="I86" s="17"/>
     </row>
     <row r="87" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -2909,8 +3098,8 @@
       <c r="D87" s="14"/>
       <c r="E87" s="17"/>
       <c r="F87" s="17"/>
-      <c r="G87" s="14"/>
-      <c r="H87" s="14"/>
+      <c r="G87" s="17"/>
+      <c r="H87" s="90"/>
       <c r="I87" s="17"/>
     </row>
     <row r="88" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -2919,8 +3108,8 @@
       <c r="D88" s="14"/>
       <c r="E88" s="17"/>
       <c r="F88" s="17"/>
-      <c r="G88" s="14"/>
-      <c r="H88" s="14"/>
+      <c r="G88" s="17"/>
+      <c r="H88" s="90"/>
       <c r="I88" s="17"/>
     </row>
     <row r="89" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -2929,8 +3118,8 @@
       <c r="D89" s="14"/>
       <c r="E89" s="17"/>
       <c r="F89" s="17"/>
-      <c r="G89" s="14"/>
-      <c r="H89" s="14"/>
+      <c r="G89" s="17"/>
+      <c r="H89" s="90"/>
       <c r="I89" s="17"/>
     </row>
     <row r="90" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -2939,8 +3128,8 @@
       <c r="D90" s="14"/>
       <c r="E90" s="17"/>
       <c r="F90" s="17"/>
-      <c r="G90" s="14"/>
-      <c r="H90" s="14"/>
+      <c r="G90" s="17"/>
+      <c r="H90" s="90"/>
       <c r="I90" s="17"/>
     </row>
     <row r="91" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -2949,8 +3138,8 @@
       <c r="D91" s="14"/>
       <c r="E91" s="17"/>
       <c r="F91" s="17"/>
-      <c r="G91" s="14"/>
-      <c r="H91" s="14"/>
+      <c r="G91" s="17"/>
+      <c r="H91" s="90"/>
       <c r="I91" s="17"/>
     </row>
     <row r="92" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -2959,8 +3148,8 @@
       <c r="D92" s="14"/>
       <c r="E92" s="17"/>
       <c r="F92" s="17"/>
-      <c r="G92" s="14"/>
-      <c r="H92" s="14"/>
+      <c r="G92" s="17"/>
+      <c r="H92" s="90"/>
       <c r="I92" s="17"/>
     </row>
     <row r="93" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -2969,8 +3158,8 @@
       <c r="D93" s="14"/>
       <c r="E93" s="17"/>
       <c r="F93" s="17"/>
-      <c r="G93" s="14"/>
-      <c r="H93" s="14"/>
+      <c r="G93" s="17"/>
+      <c r="H93" s="90"/>
       <c r="I93" s="17"/>
     </row>
     <row r="94" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -2979,8 +3168,8 @@
       <c r="D94" s="14"/>
       <c r="E94" s="17"/>
       <c r="F94" s="17"/>
-      <c r="G94" s="14"/>
-      <c r="H94" s="14"/>
+      <c r="G94" s="17"/>
+      <c r="H94" s="90"/>
       <c r="I94" s="17"/>
     </row>
     <row r="95" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -2989,8 +3178,8 @@
       <c r="D95" s="14"/>
       <c r="E95" s="17"/>
       <c r="F95" s="17"/>
-      <c r="G95" s="14"/>
-      <c r="H95" s="14"/>
+      <c r="G95" s="17"/>
+      <c r="H95" s="90"/>
       <c r="I95" s="17"/>
     </row>
     <row r="96" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -2999,8 +3188,8 @@
       <c r="D96" s="14"/>
       <c r="E96" s="17"/>
       <c r="F96" s="17"/>
-      <c r="G96" s="14"/>
-      <c r="H96" s="14"/>
+      <c r="G96" s="17"/>
+      <c r="H96" s="90"/>
       <c r="I96" s="17"/>
     </row>
     <row r="97" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -3009,8 +3198,8 @@
       <c r="D97" s="14"/>
       <c r="E97" s="17"/>
       <c r="F97" s="17"/>
-      <c r="G97" s="14"/>
-      <c r="H97" s="14"/>
+      <c r="G97" s="17"/>
+      <c r="H97" s="90"/>
       <c r="I97" s="17"/>
     </row>
     <row r="98" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -3019,8 +3208,8 @@
       <c r="D98" s="14"/>
       <c r="E98" s="17"/>
       <c r="F98" s="17"/>
-      <c r="G98" s="14"/>
-      <c r="H98" s="14"/>
+      <c r="G98" s="17"/>
+      <c r="H98" s="90"/>
       <c r="I98" s="17"/>
     </row>
     <row r="99" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -3029,9 +3218,9 @@
       <c r="D99" s="14"/>
       <c r="E99" s="17"/>
       <c r="F99" s="17"/>
-      <c r="G99" s="14"/>
-      <c r="H99" s="14"/>
-      <c r="I99" s="14"/>
+      <c r="G99" s="17"/>
+      <c r="H99" s="90"/>
+      <c r="I99" s="17"/>
     </row>
     <row r="100" spans="2:9" ht="21" x14ac:dyDescent="0.35">
       <c r="B100" s="14"/>
@@ -3039,9 +3228,9 @@
       <c r="D100" s="14"/>
       <c r="E100" s="17"/>
       <c r="F100" s="17"/>
-      <c r="G100" s="14"/>
-      <c r="H100" s="14"/>
-      <c r="I100" s="14"/>
+      <c r="G100" s="17"/>
+      <c r="H100" s="90"/>
+      <c r="I100" s="17"/>
     </row>
     <row r="101" spans="2:9" ht="21" x14ac:dyDescent="0.35">
       <c r="B101" s="14"/>
@@ -3049,8 +3238,8 @@
       <c r="D101" s="14"/>
       <c r="E101" s="17"/>
       <c r="F101" s="17"/>
-      <c r="G101" s="14"/>
-      <c r="H101" s="14"/>
+      <c r="G101" s="17"/>
+      <c r="H101" s="90"/>
       <c r="I101" s="14"/>
     </row>
     <row r="102" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -3059,8 +3248,8 @@
       <c r="D102" s="14"/>
       <c r="E102" s="17"/>
       <c r="F102" s="17"/>
-      <c r="G102" s="14"/>
-      <c r="H102" s="14"/>
+      <c r="G102" s="17"/>
+      <c r="H102" s="90"/>
       <c r="I102" s="14"/>
     </row>
     <row r="103" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -3069,8 +3258,8 @@
       <c r="D103" s="14"/>
       <c r="E103" s="17"/>
       <c r="F103" s="17"/>
-      <c r="G103" s="14"/>
-      <c r="H103" s="14"/>
+      <c r="G103" s="17"/>
+      <c r="H103" s="90"/>
       <c r="I103" s="14"/>
     </row>
     <row r="104" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -3079,8 +3268,8 @@
       <c r="D104" s="14"/>
       <c r="E104" s="17"/>
       <c r="F104" s="17"/>
-      <c r="G104" s="14"/>
-      <c r="H104" s="14"/>
+      <c r="G104" s="17"/>
+      <c r="H104" s="90"/>
       <c r="I104" s="14"/>
     </row>
     <row r="105" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -3089,8 +3278,8 @@
       <c r="D105" s="14"/>
       <c r="E105" s="17"/>
       <c r="F105" s="17"/>
-      <c r="G105" s="14"/>
-      <c r="H105" s="14"/>
+      <c r="G105" s="17"/>
+      <c r="H105" s="90"/>
       <c r="I105" s="14"/>
     </row>
     <row r="106" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -3099,8 +3288,8 @@
       <c r="D106" s="14"/>
       <c r="E106" s="17"/>
       <c r="F106" s="17"/>
-      <c r="G106" s="14"/>
-      <c r="H106" s="14"/>
+      <c r="G106" s="17"/>
+      <c r="H106" s="90"/>
       <c r="I106" s="14"/>
     </row>
     <row r="107" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -3109,8 +3298,8 @@
       <c r="D107" s="14"/>
       <c r="E107" s="17"/>
       <c r="F107" s="17"/>
-      <c r="G107" s="14"/>
-      <c r="H107" s="14"/>
+      <c r="G107" s="17"/>
+      <c r="H107" s="90"/>
       <c r="I107" s="14"/>
     </row>
     <row r="108" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -3119,8 +3308,8 @@
       <c r="D108" s="14"/>
       <c r="E108" s="17"/>
       <c r="F108" s="17"/>
-      <c r="G108" s="14"/>
-      <c r="H108" s="14"/>
+      <c r="G108" s="17"/>
+      <c r="H108" s="90"/>
       <c r="I108" s="14"/>
     </row>
     <row r="109" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -3129,8 +3318,8 @@
       <c r="D109" s="14"/>
       <c r="E109" s="17"/>
       <c r="F109" s="17"/>
-      <c r="G109" s="14"/>
-      <c r="H109" s="14"/>
+      <c r="G109" s="17"/>
+      <c r="H109" s="90"/>
       <c r="I109" s="14"/>
     </row>
     <row r="110" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -3139,8 +3328,8 @@
       <c r="D110" s="14"/>
       <c r="E110" s="17"/>
       <c r="F110" s="17"/>
-      <c r="G110" s="14"/>
-      <c r="H110" s="14"/>
+      <c r="G110" s="17"/>
+      <c r="H110" s="90"/>
       <c r="I110" s="14"/>
     </row>
     <row r="111" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -3149,8 +3338,8 @@
       <c r="D111" s="14"/>
       <c r="E111" s="17"/>
       <c r="F111" s="17"/>
-      <c r="G111" s="14"/>
-      <c r="H111" s="14"/>
+      <c r="G111" s="17"/>
+      <c r="H111" s="90"/>
       <c r="I111" s="14"/>
     </row>
     <row r="112" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -3159,8 +3348,8 @@
       <c r="D112" s="14"/>
       <c r="E112" s="17"/>
       <c r="F112" s="17"/>
-      <c r="G112" s="14"/>
-      <c r="H112" s="14"/>
+      <c r="G112" s="17"/>
+      <c r="H112" s="90"/>
       <c r="I112" s="14"/>
     </row>
     <row r="113" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -3169,8 +3358,8 @@
       <c r="D113" s="14"/>
       <c r="E113" s="17"/>
       <c r="F113" s="17"/>
-      <c r="G113" s="14"/>
-      <c r="H113" s="14"/>
+      <c r="G113" s="17"/>
+      <c r="H113" s="90"/>
       <c r="I113" s="14"/>
     </row>
     <row r="114" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -3179,8 +3368,8 @@
       <c r="D114" s="14"/>
       <c r="E114" s="17"/>
       <c r="F114" s="17"/>
-      <c r="G114" s="14"/>
-      <c r="H114" s="14"/>
+      <c r="G114" s="17"/>
+      <c r="H114" s="90"/>
       <c r="I114" s="14"/>
     </row>
     <row r="115" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -3188,9 +3377,9 @@
       <c r="C115" s="16"/>
       <c r="D115" s="14"/>
       <c r="E115" s="17"/>
-      <c r="F115" s="14"/>
-      <c r="G115" s="14"/>
-      <c r="H115" s="14"/>
+      <c r="F115" s="17"/>
+      <c r="G115" s="17"/>
+      <c r="H115" s="90"/>
       <c r="I115" s="14"/>
     </row>
     <row r="116" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -3198,9 +3387,9 @@
       <c r="C116" s="16"/>
       <c r="D116" s="14"/>
       <c r="E116" s="17"/>
-      <c r="F116" s="14"/>
-      <c r="G116" s="14"/>
-      <c r="H116" s="14"/>
+      <c r="F116" s="17"/>
+      <c r="G116" s="17"/>
+      <c r="H116" s="90"/>
       <c r="I116" s="14"/>
     </row>
     <row r="117" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -3209,8 +3398,8 @@
       <c r="D117" s="14"/>
       <c r="E117" s="17"/>
       <c r="F117" s="14"/>
-      <c r="G117" s="14"/>
-      <c r="H117" s="14"/>
+      <c r="G117" s="17"/>
+      <c r="H117" s="90"/>
       <c r="I117" s="14"/>
     </row>
     <row r="118" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -3219,8 +3408,8 @@
       <c r="D118" s="14"/>
       <c r="E118" s="17"/>
       <c r="F118" s="14"/>
-      <c r="G118" s="14"/>
-      <c r="H118" s="14"/>
+      <c r="G118" s="17"/>
+      <c r="H118" s="90"/>
       <c r="I118" s="14"/>
     </row>
     <row r="119" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -3229,8 +3418,8 @@
       <c r="D119" s="14"/>
       <c r="E119" s="17"/>
       <c r="F119" s="14"/>
-      <c r="G119" s="14"/>
-      <c r="H119" s="14"/>
+      <c r="G119" s="17"/>
+      <c r="H119" s="90"/>
       <c r="I119" s="14"/>
     </row>
     <row r="120" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -3239,8 +3428,8 @@
       <c r="D120" s="14"/>
       <c r="E120" s="17"/>
       <c r="F120" s="14"/>
-      <c r="G120" s="14"/>
-      <c r="H120" s="14"/>
+      <c r="G120" s="17"/>
+      <c r="H120" s="90"/>
       <c r="I120" s="14"/>
     </row>
     <row r="121" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -3249,8 +3438,8 @@
       <c r="D121" s="14"/>
       <c r="E121" s="17"/>
       <c r="F121" s="14"/>
-      <c r="G121" s="14"/>
-      <c r="H121" s="14"/>
+      <c r="G121" s="17"/>
+      <c r="H121" s="90"/>
       <c r="I121" s="14"/>
     </row>
     <row r="122" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -3259,8 +3448,8 @@
       <c r="D122" s="14"/>
       <c r="E122" s="17"/>
       <c r="F122" s="14"/>
-      <c r="G122" s="14"/>
-      <c r="H122" s="14"/>
+      <c r="G122" s="17"/>
+      <c r="H122" s="90"/>
       <c r="I122" s="14"/>
     </row>
     <row r="123" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -3269,8 +3458,8 @@
       <c r="D123" s="14"/>
       <c r="E123" s="17"/>
       <c r="F123" s="14"/>
-      <c r="G123" s="14"/>
-      <c r="H123" s="14"/>
+      <c r="G123" s="17"/>
+      <c r="H123" s="90"/>
       <c r="I123" s="14"/>
     </row>
     <row r="124" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -3279,8 +3468,8 @@
       <c r="D124" s="14"/>
       <c r="E124" s="17"/>
       <c r="F124" s="14"/>
-      <c r="G124" s="14"/>
-      <c r="H124" s="14"/>
+      <c r="G124" s="17"/>
+      <c r="H124" s="90"/>
       <c r="I124" s="14"/>
     </row>
     <row r="125" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -3289,8 +3478,8 @@
       <c r="D125" s="14"/>
       <c r="E125" s="17"/>
       <c r="F125" s="14"/>
-      <c r="G125" s="14"/>
-      <c r="H125" s="14"/>
+      <c r="G125" s="17"/>
+      <c r="H125" s="90"/>
       <c r="I125" s="14"/>
     </row>
     <row r="126" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -3299,8 +3488,8 @@
       <c r="D126" s="14"/>
       <c r="E126" s="17"/>
       <c r="F126" s="14"/>
-      <c r="G126" s="14"/>
-      <c r="H126" s="14"/>
+      <c r="G126" s="17"/>
+      <c r="H126" s="90"/>
       <c r="I126" s="14"/>
     </row>
     <row r="127" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -3309,8 +3498,8 @@
       <c r="D127" s="14"/>
       <c r="E127" s="17"/>
       <c r="F127" s="14"/>
-      <c r="G127" s="14"/>
-      <c r="H127" s="14"/>
+      <c r="G127" s="17"/>
+      <c r="H127" s="90"/>
       <c r="I127" s="14"/>
     </row>
     <row r="128" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -3319,8 +3508,8 @@
       <c r="D128" s="14"/>
       <c r="E128" s="17"/>
       <c r="F128" s="14"/>
-      <c r="G128" s="14"/>
-      <c r="H128" s="14"/>
+      <c r="G128" s="17"/>
+      <c r="H128" s="90"/>
       <c r="I128" s="14"/>
     </row>
     <row r="129" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -3329,8 +3518,8 @@
       <c r="D129" s="14"/>
       <c r="E129" s="17"/>
       <c r="F129" s="14"/>
-      <c r="G129" s="14"/>
-      <c r="H129" s="14"/>
+      <c r="G129" s="17"/>
+      <c r="H129" s="90"/>
       <c r="I129" s="14"/>
     </row>
     <row r="130" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -3339,8 +3528,8 @@
       <c r="D130" s="14"/>
       <c r="E130" s="17"/>
       <c r="F130" s="14"/>
-      <c r="G130" s="14"/>
-      <c r="H130" s="14"/>
+      <c r="G130" s="17"/>
+      <c r="H130" s="90"/>
       <c r="I130" s="14"/>
     </row>
     <row r="131" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -3349,8 +3538,8 @@
       <c r="D131" s="14"/>
       <c r="E131" s="17"/>
       <c r="F131" s="14"/>
-      <c r="G131" s="14"/>
-      <c r="H131" s="14"/>
+      <c r="G131" s="17"/>
+      <c r="H131" s="90"/>
       <c r="I131" s="14"/>
     </row>
     <row r="132" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -3359,8 +3548,8 @@
       <c r="D132" s="14"/>
       <c r="E132" s="17"/>
       <c r="F132" s="14"/>
-      <c r="G132" s="14"/>
-      <c r="H132" s="14"/>
+      <c r="G132" s="17"/>
+      <c r="H132" s="90"/>
       <c r="I132" s="14"/>
     </row>
     <row r="133" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -3369,8 +3558,8 @@
       <c r="D133" s="14"/>
       <c r="E133" s="17"/>
       <c r="F133" s="14"/>
-      <c r="G133" s="14"/>
-      <c r="H133" s="14"/>
+      <c r="G133" s="17"/>
+      <c r="H133" s="90"/>
       <c r="I133" s="14"/>
     </row>
     <row r="134" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -3379,8 +3568,8 @@
       <c r="D134" s="14"/>
       <c r="E134" s="17"/>
       <c r="F134" s="14"/>
-      <c r="G134" s="14"/>
-      <c r="H134" s="14"/>
+      <c r="G134" s="17"/>
+      <c r="H134" s="90"/>
       <c r="I134" s="14"/>
     </row>
     <row r="135" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -3389,8 +3578,8 @@
       <c r="D135" s="14"/>
       <c r="E135" s="17"/>
       <c r="F135" s="14"/>
-      <c r="G135" s="14"/>
-      <c r="H135" s="14"/>
+      <c r="G135" s="17"/>
+      <c r="H135" s="90"/>
       <c r="I135" s="14"/>
     </row>
     <row r="136" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -3399,8 +3588,8 @@
       <c r="D136" s="14"/>
       <c r="E136" s="17"/>
       <c r="F136" s="14"/>
-      <c r="G136" s="14"/>
-      <c r="H136" s="14"/>
+      <c r="G136" s="17"/>
+      <c r="H136" s="90"/>
       <c r="I136" s="14"/>
     </row>
     <row r="137" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -3409,28 +3598,28 @@
       <c r="D137" s="14"/>
       <c r="E137" s="17"/>
       <c r="F137" s="14"/>
-      <c r="G137" s="14"/>
-      <c r="H137" s="14"/>
+      <c r="G137" s="17"/>
+      <c r="H137" s="90"/>
       <c r="I137" s="14"/>
     </row>
     <row r="138" spans="2:9" ht="21" x14ac:dyDescent="0.35">
       <c r="B138" s="14"/>
-      <c r="C138" s="15"/>
+      <c r="C138" s="16"/>
       <c r="D138" s="14"/>
       <c r="E138" s="17"/>
       <c r="F138" s="14"/>
-      <c r="G138" s="14"/>
-      <c r="H138" s="14"/>
+      <c r="G138" s="17"/>
+      <c r="H138" s="90"/>
       <c r="I138" s="14"/>
     </row>
     <row r="139" spans="2:9" ht="21" x14ac:dyDescent="0.35">
       <c r="B139" s="14"/>
-      <c r="C139" s="15"/>
+      <c r="C139" s="16"/>
       <c r="D139" s="14"/>
       <c r="E139" s="17"/>
       <c r="F139" s="14"/>
-      <c r="G139" s="14"/>
-      <c r="H139" s="14"/>
+      <c r="G139" s="17"/>
+      <c r="H139" s="90"/>
       <c r="I139" s="14"/>
     </row>
     <row r="140" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -3439,8 +3628,8 @@
       <c r="D140" s="14"/>
       <c r="E140" s="17"/>
       <c r="F140" s="14"/>
-      <c r="G140" s="14"/>
-      <c r="H140" s="14"/>
+      <c r="G140" s="17"/>
+      <c r="H140" s="90"/>
       <c r="I140" s="14"/>
     </row>
     <row r="141" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -3449,8 +3638,8 @@
       <c r="D141" s="14"/>
       <c r="E141" s="17"/>
       <c r="F141" s="14"/>
-      <c r="G141" s="14"/>
-      <c r="H141" s="14"/>
+      <c r="G141" s="17"/>
+      <c r="H141" s="90"/>
       <c r="I141" s="14"/>
     </row>
     <row r="142" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -3459,8 +3648,8 @@
       <c r="D142" s="14"/>
       <c r="E142" s="17"/>
       <c r="F142" s="14"/>
-      <c r="G142" s="14"/>
-      <c r="H142" s="14"/>
+      <c r="G142" s="17"/>
+      <c r="H142" s="90"/>
       <c r="I142" s="14"/>
     </row>
     <row r="143" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -3469,8 +3658,8 @@
       <c r="D143" s="14"/>
       <c r="E143" s="17"/>
       <c r="F143" s="14"/>
-      <c r="G143" s="14"/>
-      <c r="H143" s="14"/>
+      <c r="G143" s="17"/>
+      <c r="H143" s="90"/>
       <c r="I143" s="14"/>
     </row>
     <row r="144" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -3479,8 +3668,8 @@
       <c r="D144" s="14"/>
       <c r="E144" s="17"/>
       <c r="F144" s="14"/>
-      <c r="G144" s="14"/>
-      <c r="H144" s="14"/>
+      <c r="G144" s="17"/>
+      <c r="H144" s="90"/>
       <c r="I144" s="14"/>
     </row>
     <row r="145" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -3489,8 +3678,8 @@
       <c r="D145" s="14"/>
       <c r="E145" s="17"/>
       <c r="F145" s="14"/>
-      <c r="G145" s="14"/>
-      <c r="H145" s="14"/>
+      <c r="G145" s="17"/>
+      <c r="H145" s="90"/>
       <c r="I145" s="14"/>
     </row>
     <row r="146" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -3499,8 +3688,8 @@
       <c r="D146" s="14"/>
       <c r="E146" s="17"/>
       <c r="F146" s="14"/>
-      <c r="G146" s="14"/>
-      <c r="H146" s="14"/>
+      <c r="G146" s="17"/>
+      <c r="H146" s="90"/>
       <c r="I146" s="14"/>
     </row>
     <row r="147" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -3509,8 +3698,8 @@
       <c r="D147" s="14"/>
       <c r="E147" s="17"/>
       <c r="F147" s="14"/>
-      <c r="G147" s="14"/>
-      <c r="H147" s="14"/>
+      <c r="G147" s="17"/>
+      <c r="H147" s="90"/>
       <c r="I147" s="14"/>
     </row>
     <row r="148" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -3519,8 +3708,8 @@
       <c r="D148" s="14"/>
       <c r="E148" s="17"/>
       <c r="F148" s="14"/>
-      <c r="G148" s="14"/>
-      <c r="H148" s="14"/>
+      <c r="G148" s="17"/>
+      <c r="H148" s="90"/>
       <c r="I148" s="14"/>
     </row>
     <row r="149" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -3529,8 +3718,8 @@
       <c r="D149" s="14"/>
       <c r="E149" s="17"/>
       <c r="F149" s="14"/>
-      <c r="G149" s="14"/>
-      <c r="H149" s="14"/>
+      <c r="G149" s="17"/>
+      <c r="H149" s="90"/>
       <c r="I149" s="14"/>
     </row>
     <row r="150" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -3539,8 +3728,8 @@
       <c r="D150" s="14"/>
       <c r="E150" s="17"/>
       <c r="F150" s="14"/>
-      <c r="G150" s="14"/>
-      <c r="H150" s="14"/>
+      <c r="G150" s="17"/>
+      <c r="H150" s="90"/>
       <c r="I150" s="14"/>
     </row>
     <row r="151" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -3549,8 +3738,8 @@
       <c r="D151" s="14"/>
       <c r="E151" s="17"/>
       <c r="F151" s="14"/>
-      <c r="G151" s="14"/>
-      <c r="H151" s="14"/>
+      <c r="G151" s="17"/>
+      <c r="H151" s="90"/>
       <c r="I151" s="14"/>
     </row>
     <row r="152" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -3559,8 +3748,8 @@
       <c r="D152" s="14"/>
       <c r="E152" s="17"/>
       <c r="F152" s="14"/>
-      <c r="G152" s="14"/>
-      <c r="H152" s="14"/>
+      <c r="G152" s="17"/>
+      <c r="H152" s="90"/>
       <c r="I152" s="14"/>
     </row>
     <row r="153" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -3569,8 +3758,8 @@
       <c r="D153" s="14"/>
       <c r="E153" s="17"/>
       <c r="F153" s="14"/>
-      <c r="G153" s="14"/>
-      <c r="H153" s="14"/>
+      <c r="G153" s="17"/>
+      <c r="H153" s="90"/>
       <c r="I153" s="14"/>
     </row>
     <row r="154" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -3579,8 +3768,8 @@
       <c r="D154" s="14"/>
       <c r="E154" s="17"/>
       <c r="F154" s="14"/>
-      <c r="G154" s="14"/>
-      <c r="H154" s="14"/>
+      <c r="G154" s="17"/>
+      <c r="H154" s="90"/>
       <c r="I154" s="14"/>
     </row>
     <row r="155" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -3589,8 +3778,8 @@
       <c r="D155" s="14"/>
       <c r="E155" s="17"/>
       <c r="F155" s="14"/>
-      <c r="G155" s="14"/>
-      <c r="H155" s="14"/>
+      <c r="G155" s="17"/>
+      <c r="H155" s="90"/>
       <c r="I155" s="14"/>
     </row>
     <row r="156" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -3599,8 +3788,8 @@
       <c r="D156" s="14"/>
       <c r="E156" s="17"/>
       <c r="F156" s="14"/>
-      <c r="G156" s="14"/>
-      <c r="H156" s="14"/>
+      <c r="G156" s="17"/>
+      <c r="H156" s="90"/>
       <c r="I156" s="14"/>
     </row>
     <row r="157" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -3609,8 +3798,8 @@
       <c r="D157" s="14"/>
       <c r="E157" s="17"/>
       <c r="F157" s="14"/>
-      <c r="G157" s="14"/>
-      <c r="H157" s="14"/>
+      <c r="G157" s="17"/>
+      <c r="H157" s="90"/>
       <c r="I157" s="14"/>
     </row>
     <row r="158" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -3619,8 +3808,8 @@
       <c r="D158" s="14"/>
       <c r="E158" s="17"/>
       <c r="F158" s="14"/>
-      <c r="G158" s="14"/>
-      <c r="H158" s="14"/>
+      <c r="G158" s="17"/>
+      <c r="H158" s="90"/>
       <c r="I158" s="14"/>
     </row>
     <row r="159" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -3629,8 +3818,8 @@
       <c r="D159" s="14"/>
       <c r="E159" s="17"/>
       <c r="F159" s="14"/>
-      <c r="G159" s="14"/>
-      <c r="H159" s="14"/>
+      <c r="G159" s="17"/>
+      <c r="H159" s="90"/>
       <c r="I159" s="14"/>
     </row>
     <row r="160" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -3639,8 +3828,8 @@
       <c r="D160" s="14"/>
       <c r="E160" s="17"/>
       <c r="F160" s="14"/>
-      <c r="G160" s="14"/>
-      <c r="H160" s="14"/>
+      <c r="G160" s="17"/>
+      <c r="H160" s="90"/>
       <c r="I160" s="14"/>
     </row>
     <row r="161" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -3649,8 +3838,8 @@
       <c r="D161" s="14"/>
       <c r="E161" s="17"/>
       <c r="F161" s="14"/>
-      <c r="G161" s="14"/>
-      <c r="H161" s="14"/>
+      <c r="G161" s="17"/>
+      <c r="H161" s="90"/>
       <c r="I161" s="14"/>
     </row>
     <row r="162" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -3659,8 +3848,8 @@
       <c r="D162" s="14"/>
       <c r="E162" s="17"/>
       <c r="F162" s="14"/>
-      <c r="G162" s="14"/>
-      <c r="H162" s="14"/>
+      <c r="G162" s="17"/>
+      <c r="H162" s="90"/>
       <c r="I162" s="14"/>
     </row>
     <row r="163" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -3669,8 +3858,8 @@
       <c r="D163" s="14"/>
       <c r="E163" s="17"/>
       <c r="F163" s="14"/>
-      <c r="G163" s="14"/>
-      <c r="H163" s="14"/>
+      <c r="G163" s="17"/>
+      <c r="H163" s="90"/>
       <c r="I163" s="14"/>
     </row>
     <row r="164" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -3679,8 +3868,8 @@
       <c r="D164" s="14"/>
       <c r="E164" s="17"/>
       <c r="F164" s="14"/>
-      <c r="G164" s="14"/>
-      <c r="H164" s="14"/>
+      <c r="G164" s="17"/>
+      <c r="H164" s="90"/>
       <c r="I164" s="14"/>
     </row>
     <row r="165" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -3689,8 +3878,8 @@
       <c r="D165" s="14"/>
       <c r="E165" s="17"/>
       <c r="F165" s="14"/>
-      <c r="G165" s="14"/>
-      <c r="H165" s="14"/>
+      <c r="G165" s="17"/>
+      <c r="H165" s="90"/>
       <c r="I165" s="14"/>
     </row>
     <row r="166" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -3699,8 +3888,8 @@
       <c r="D166" s="14"/>
       <c r="E166" s="17"/>
       <c r="F166" s="14"/>
-      <c r="G166" s="14"/>
-      <c r="H166" s="14"/>
+      <c r="G166" s="17"/>
+      <c r="H166" s="90"/>
       <c r="I166" s="14"/>
     </row>
     <row r="167" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -3709,8 +3898,8 @@
       <c r="D167" s="14"/>
       <c r="E167" s="17"/>
       <c r="F167" s="14"/>
-      <c r="G167" s="14"/>
-      <c r="H167" s="14"/>
+      <c r="G167" s="17"/>
+      <c r="H167" s="90"/>
       <c r="I167" s="14"/>
     </row>
     <row r="168" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -3719,8 +3908,8 @@
       <c r="D168" s="14"/>
       <c r="E168" s="17"/>
       <c r="F168" s="14"/>
-      <c r="G168" s="14"/>
-      <c r="H168" s="14"/>
+      <c r="G168" s="17"/>
+      <c r="H168" s="90"/>
       <c r="I168" s="14"/>
     </row>
     <row r="169" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -3729,8 +3918,8 @@
       <c r="D169" s="14"/>
       <c r="E169" s="17"/>
       <c r="F169" s="14"/>
-      <c r="G169" s="14"/>
-      <c r="H169" s="14"/>
+      <c r="G169" s="17"/>
+      <c r="H169" s="90"/>
       <c r="I169" s="14"/>
     </row>
     <row r="170" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -3739,28 +3928,28 @@
       <c r="D170" s="14"/>
       <c r="E170" s="17"/>
       <c r="F170" s="14"/>
-      <c r="G170" s="14"/>
-      <c r="H170" s="14"/>
+      <c r="G170" s="17"/>
+      <c r="H170" s="90"/>
       <c r="I170" s="14"/>
     </row>
-    <row r="171" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="171" spans="2:9" ht="21" x14ac:dyDescent="0.35">
       <c r="B171" s="14"/>
-      <c r="C171" s="14"/>
+      <c r="C171" s="15"/>
       <c r="D171" s="14"/>
       <c r="E171" s="17"/>
       <c r="F171" s="14"/>
-      <c r="G171" s="14"/>
-      <c r="H171" s="14"/>
+      <c r="G171" s="17"/>
+      <c r="H171" s="90"/>
       <c r="I171" s="14"/>
     </row>
-    <row r="172" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="172" spans="2:9" ht="21" x14ac:dyDescent="0.35">
       <c r="B172" s="14"/>
-      <c r="C172" s="14"/>
+      <c r="C172" s="15"/>
       <c r="D172" s="14"/>
       <c r="E172" s="17"/>
       <c r="F172" s="14"/>
-      <c r="G172" s="14"/>
-      <c r="H172" s="14"/>
+      <c r="G172" s="17"/>
+      <c r="H172" s="90"/>
       <c r="I172" s="14"/>
     </row>
     <row r="173" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -3769,8 +3958,8 @@
       <c r="D173" s="14"/>
       <c r="E173" s="17"/>
       <c r="F173" s="14"/>
-      <c r="G173" s="14"/>
-      <c r="H173" s="14"/>
+      <c r="G173" s="17"/>
+      <c r="H173" s="90"/>
       <c r="I173" s="14"/>
     </row>
     <row r="174" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -3779,8 +3968,8 @@
       <c r="D174" s="14"/>
       <c r="E174" s="17"/>
       <c r="F174" s="14"/>
-      <c r="G174" s="14"/>
-      <c r="H174" s="14"/>
+      <c r="G174" s="17"/>
+      <c r="H174" s="90"/>
       <c r="I174" s="14"/>
     </row>
     <row r="175" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -3789,8 +3978,8 @@
       <c r="D175" s="14"/>
       <c r="E175" s="17"/>
       <c r="F175" s="14"/>
-      <c r="G175" s="14"/>
-      <c r="H175" s="14"/>
+      <c r="G175" s="17"/>
+      <c r="H175" s="90"/>
       <c r="I175" s="14"/>
     </row>
     <row r="176" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -3799,8 +3988,8 @@
       <c r="D176" s="14"/>
       <c r="E176" s="17"/>
       <c r="F176" s="14"/>
-      <c r="G176" s="14"/>
-      <c r="H176" s="14"/>
+      <c r="G176" s="17"/>
+      <c r="H176" s="90"/>
       <c r="I176" s="14"/>
     </row>
     <row r="177" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -3809,8 +3998,8 @@
       <c r="D177" s="14"/>
       <c r="E177" s="17"/>
       <c r="F177" s="14"/>
-      <c r="G177" s="14"/>
-      <c r="H177" s="14"/>
+      <c r="G177" s="17"/>
+      <c r="H177" s="90"/>
       <c r="I177" s="14"/>
     </row>
     <row r="178" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -3819,8 +4008,8 @@
       <c r="D178" s="14"/>
       <c r="E178" s="17"/>
       <c r="F178" s="14"/>
-      <c r="G178" s="14"/>
-      <c r="H178" s="14"/>
+      <c r="G178" s="17"/>
+      <c r="H178" s="90"/>
       <c r="I178" s="14"/>
     </row>
     <row r="179" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -3829,8 +4018,8 @@
       <c r="D179" s="14"/>
       <c r="E179" s="17"/>
       <c r="F179" s="14"/>
-      <c r="G179" s="14"/>
-      <c r="H179" s="14"/>
+      <c r="G179" s="17"/>
+      <c r="H179" s="90"/>
       <c r="I179" s="14"/>
     </row>
     <row r="180" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -3839,8 +4028,8 @@
       <c r="D180" s="14"/>
       <c r="E180" s="17"/>
       <c r="F180" s="14"/>
-      <c r="G180" s="14"/>
-      <c r="H180" s="14"/>
+      <c r="G180" s="17"/>
+      <c r="H180" s="90"/>
       <c r="I180" s="14"/>
     </row>
     <row r="181" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -3849,8 +4038,8 @@
       <c r="D181" s="14"/>
       <c r="E181" s="17"/>
       <c r="F181" s="14"/>
-      <c r="G181" s="14"/>
-      <c r="H181" s="14"/>
+      <c r="G181" s="17"/>
+      <c r="H181" s="90"/>
       <c r="I181" s="14"/>
     </row>
     <row r="182" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -3859,8 +4048,8 @@
       <c r="D182" s="14"/>
       <c r="E182" s="17"/>
       <c r="F182" s="14"/>
-      <c r="G182" s="14"/>
-      <c r="H182" s="14"/>
+      <c r="G182" s="17"/>
+      <c r="H182" s="90"/>
       <c r="I182" s="14"/>
     </row>
     <row r="183" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -3869,8 +4058,8 @@
       <c r="D183" s="14"/>
       <c r="E183" s="17"/>
       <c r="F183" s="14"/>
-      <c r="G183" s="14"/>
-      <c r="H183" s="14"/>
+      <c r="G183" s="17"/>
+      <c r="H183" s="90"/>
       <c r="I183" s="14"/>
     </row>
     <row r="184" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -3879,8 +4068,8 @@
       <c r="D184" s="14"/>
       <c r="E184" s="17"/>
       <c r="F184" s="14"/>
-      <c r="G184" s="14"/>
-      <c r="H184" s="14"/>
+      <c r="G184" s="17"/>
+      <c r="H184" s="90"/>
       <c r="I184" s="14"/>
     </row>
     <row r="185" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -3889,8 +4078,8 @@
       <c r="D185" s="14"/>
       <c r="E185" s="17"/>
       <c r="F185" s="14"/>
-      <c r="G185" s="14"/>
-      <c r="H185" s="14"/>
+      <c r="G185" s="17"/>
+      <c r="H185" s="90"/>
       <c r="I185" s="14"/>
     </row>
     <row r="186" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -3899,8 +4088,8 @@
       <c r="D186" s="14"/>
       <c r="E186" s="17"/>
       <c r="F186" s="14"/>
-      <c r="G186" s="14"/>
-      <c r="H186" s="14"/>
+      <c r="G186" s="17"/>
+      <c r="H186" s="90"/>
       <c r="I186" s="14"/>
     </row>
     <row r="187" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -3909,8 +4098,8 @@
       <c r="D187" s="14"/>
       <c r="E187" s="17"/>
       <c r="F187" s="14"/>
-      <c r="G187" s="14"/>
-      <c r="H187" s="14"/>
+      <c r="G187" s="17"/>
+      <c r="H187" s="90"/>
       <c r="I187" s="14"/>
     </row>
     <row r="188" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -3919,8 +4108,8 @@
       <c r="D188" s="14"/>
       <c r="E188" s="17"/>
       <c r="F188" s="14"/>
-      <c r="G188" s="14"/>
-      <c r="H188" s="14"/>
+      <c r="G188" s="17"/>
+      <c r="H188" s="90"/>
       <c r="I188" s="14"/>
     </row>
     <row r="189" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -3929,8 +4118,8 @@
       <c r="D189" s="14"/>
       <c r="E189" s="17"/>
       <c r="F189" s="14"/>
-      <c r="G189" s="14"/>
-      <c r="H189" s="14"/>
+      <c r="G189" s="17"/>
+      <c r="H189" s="90"/>
       <c r="I189" s="14"/>
     </row>
     <row r="190" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -3939,8 +4128,8 @@
       <c r="D190" s="14"/>
       <c r="E190" s="17"/>
       <c r="F190" s="14"/>
-      <c r="G190" s="14"/>
-      <c r="H190" s="14"/>
+      <c r="G190" s="17"/>
+      <c r="H190" s="90"/>
       <c r="I190" s="14"/>
     </row>
     <row r="191" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -3949,8 +4138,8 @@
       <c r="D191" s="14"/>
       <c r="E191" s="17"/>
       <c r="F191" s="14"/>
-      <c r="G191" s="14"/>
-      <c r="H191" s="14"/>
+      <c r="G191" s="17"/>
+      <c r="H191" s="90"/>
       <c r="I191" s="14"/>
     </row>
     <row r="192" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -3959,8 +4148,8 @@
       <c r="D192" s="14"/>
       <c r="E192" s="17"/>
       <c r="F192" s="14"/>
-      <c r="G192" s="14"/>
-      <c r="H192" s="14"/>
+      <c r="G192" s="17"/>
+      <c r="H192" s="90"/>
       <c r="I192" s="14"/>
     </row>
     <row r="193" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -3969,8 +4158,8 @@
       <c r="D193" s="14"/>
       <c r="E193" s="17"/>
       <c r="F193" s="14"/>
-      <c r="G193" s="14"/>
-      <c r="H193" s="14"/>
+      <c r="G193" s="17"/>
+      <c r="H193" s="90"/>
       <c r="I193" s="14"/>
     </row>
     <row r="194" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -3979,8 +4168,8 @@
       <c r="D194" s="14"/>
       <c r="E194" s="17"/>
       <c r="F194" s="14"/>
-      <c r="G194" s="14"/>
-      <c r="H194" s="14"/>
+      <c r="G194" s="17"/>
+      <c r="H194" s="90"/>
       <c r="I194" s="14"/>
     </row>
     <row r="195" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -3989,8 +4178,8 @@
       <c r="D195" s="14"/>
       <c r="E195" s="17"/>
       <c r="F195" s="14"/>
-      <c r="G195" s="14"/>
-      <c r="H195" s="14"/>
+      <c r="G195" s="17"/>
+      <c r="H195" s="90"/>
       <c r="I195" s="14"/>
     </row>
     <row r="196" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -3999,8 +4188,8 @@
       <c r="D196" s="14"/>
       <c r="E196" s="17"/>
       <c r="F196" s="14"/>
-      <c r="G196" s="14"/>
-      <c r="H196" s="14"/>
+      <c r="G196" s="17"/>
+      <c r="H196" s="90"/>
       <c r="I196" s="14"/>
     </row>
     <row r="197" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -4009,8 +4198,8 @@
       <c r="D197" s="14"/>
       <c r="E197" s="17"/>
       <c r="F197" s="14"/>
-      <c r="G197" s="14"/>
-      <c r="H197" s="14"/>
+      <c r="G197" s="17"/>
+      <c r="H197" s="90"/>
       <c r="I197" s="14"/>
     </row>
     <row r="198" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -4019,8 +4208,8 @@
       <c r="D198" s="14"/>
       <c r="E198" s="17"/>
       <c r="F198" s="14"/>
-      <c r="G198" s="14"/>
-      <c r="H198" s="14"/>
+      <c r="G198" s="17"/>
+      <c r="H198" s="90"/>
       <c r="I198" s="14"/>
     </row>
     <row r="199" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -4029,8 +4218,8 @@
       <c r="D199" s="14"/>
       <c r="E199" s="17"/>
       <c r="F199" s="14"/>
-      <c r="G199" s="14"/>
-      <c r="H199" s="14"/>
+      <c r="G199" s="17"/>
+      <c r="H199" s="90"/>
       <c r="I199" s="14"/>
     </row>
     <row r="200" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -4039,8 +4228,8 @@
       <c r="D200" s="14"/>
       <c r="E200" s="17"/>
       <c r="F200" s="14"/>
-      <c r="G200" s="14"/>
-      <c r="H200" s="14"/>
+      <c r="G200" s="17"/>
+      <c r="H200" s="90"/>
       <c r="I200" s="14"/>
     </row>
     <row r="201" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -4049,8 +4238,8 @@
       <c r="D201" s="14"/>
       <c r="E201" s="17"/>
       <c r="F201" s="14"/>
-      <c r="G201" s="14"/>
-      <c r="H201" s="14"/>
+      <c r="G201" s="17"/>
+      <c r="H201" s="90"/>
       <c r="I201" s="14"/>
     </row>
     <row r="202" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -4059,8 +4248,8 @@
       <c r="D202" s="14"/>
       <c r="E202" s="17"/>
       <c r="F202" s="14"/>
-      <c r="G202" s="14"/>
-      <c r="H202" s="14"/>
+      <c r="G202" s="17"/>
+      <c r="H202" s="90"/>
       <c r="I202" s="14"/>
     </row>
     <row r="203" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -4069,8 +4258,8 @@
       <c r="D203" s="14"/>
       <c r="E203" s="17"/>
       <c r="F203" s="14"/>
-      <c r="G203" s="14"/>
-      <c r="H203" s="14"/>
+      <c r="G203" s="17"/>
+      <c r="H203" s="90"/>
       <c r="I203" s="14"/>
     </row>
     <row r="204" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -4079,8 +4268,8 @@
       <c r="D204" s="14"/>
       <c r="E204" s="17"/>
       <c r="F204" s="14"/>
-      <c r="G204" s="14"/>
-      <c r="H204" s="14"/>
+      <c r="G204" s="17"/>
+      <c r="H204" s="90"/>
       <c r="I204" s="14"/>
     </row>
     <row r="205" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -4089,8 +4278,8 @@
       <c r="D205" s="14"/>
       <c r="E205" s="17"/>
       <c r="F205" s="14"/>
-      <c r="G205" s="14"/>
-      <c r="H205" s="14"/>
+      <c r="G205" s="17"/>
+      <c r="H205" s="90"/>
       <c r="I205" s="14"/>
     </row>
     <row r="206" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -4099,8 +4288,8 @@
       <c r="D206" s="14"/>
       <c r="E206" s="17"/>
       <c r="F206" s="14"/>
-      <c r="G206" s="14"/>
-      <c r="H206" s="14"/>
+      <c r="G206" s="17"/>
+      <c r="H206" s="90"/>
       <c r="I206" s="14"/>
     </row>
     <row r="207" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -4109,8 +4298,8 @@
       <c r="D207" s="14"/>
       <c r="E207" s="17"/>
       <c r="F207" s="14"/>
-      <c r="G207" s="14"/>
-      <c r="H207" s="14"/>
+      <c r="G207" s="17"/>
+      <c r="H207" s="90"/>
       <c r="I207" s="14"/>
     </row>
     <row r="208" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -4119,8 +4308,8 @@
       <c r="D208" s="14"/>
       <c r="E208" s="17"/>
       <c r="F208" s="14"/>
-      <c r="G208" s="14"/>
-      <c r="H208" s="14"/>
+      <c r="G208" s="17"/>
+      <c r="H208" s="90"/>
       <c r="I208" s="14"/>
     </row>
     <row r="209" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -4129,8 +4318,8 @@
       <c r="D209" s="14"/>
       <c r="E209" s="17"/>
       <c r="F209" s="14"/>
-      <c r="G209" s="14"/>
-      <c r="H209" s="14"/>
+      <c r="G209" s="17"/>
+      <c r="H209" s="90"/>
       <c r="I209" s="14"/>
     </row>
     <row r="210" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -4139,8 +4328,8 @@
       <c r="D210" s="14"/>
       <c r="E210" s="17"/>
       <c r="F210" s="14"/>
-      <c r="G210" s="14"/>
-      <c r="H210" s="14"/>
+      <c r="G210" s="17"/>
+      <c r="H210" s="90"/>
       <c r="I210" s="14"/>
     </row>
     <row r="211" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -4149,8 +4338,8 @@
       <c r="D211" s="14"/>
       <c r="E211" s="17"/>
       <c r="F211" s="14"/>
-      <c r="G211" s="14"/>
-      <c r="H211" s="14"/>
+      <c r="G211" s="17"/>
+      <c r="H211" s="90"/>
       <c r="I211" s="14"/>
     </row>
     <row r="212" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -4159,8 +4348,8 @@
       <c r="D212" s="14"/>
       <c r="E212" s="17"/>
       <c r="F212" s="14"/>
-      <c r="G212" s="14"/>
-      <c r="H212" s="14"/>
+      <c r="G212" s="17"/>
+      <c r="H212" s="90"/>
       <c r="I212" s="14"/>
     </row>
     <row r="213" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -4169,8 +4358,8 @@
       <c r="D213" s="14"/>
       <c r="E213" s="17"/>
       <c r="F213" s="14"/>
-      <c r="G213" s="14"/>
-      <c r="H213" s="14"/>
+      <c r="G213" s="17"/>
+      <c r="H213" s="90"/>
       <c r="I213" s="14"/>
     </row>
     <row r="214" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -4179,8 +4368,8 @@
       <c r="D214" s="14"/>
       <c r="E214" s="17"/>
       <c r="F214" s="14"/>
-      <c r="G214" s="14"/>
-      <c r="H214" s="14"/>
+      <c r="G214" s="17"/>
+      <c r="H214" s="90"/>
       <c r="I214" s="14"/>
     </row>
     <row r="215" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -4189,29 +4378,29 @@
       <c r="D215" s="14"/>
       <c r="E215" s="17"/>
       <c r="F215" s="14"/>
-      <c r="G215" s="14"/>
-      <c r="H215" s="14"/>
+      <c r="G215" s="17"/>
+      <c r="H215" s="90"/>
       <c r="I215" s="14"/>
     </row>
-    <row r="216" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B216" s="13"/>
-      <c r="C216" s="13"/>
-      <c r="D216" s="13"/>
-      <c r="E216" s="33"/>
-      <c r="F216" s="13"/>
-      <c r="G216" s="13"/>
-      <c r="H216" s="13"/>
-      <c r="I216" s="13"/>
-    </row>
-    <row r="217" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B217" s="13"/>
-      <c r="C217" s="13"/>
-      <c r="D217" s="13"/>
-      <c r="E217" s="33"/>
-      <c r="F217" s="13"/>
-      <c r="G217" s="13"/>
-      <c r="H217" s="13"/>
-      <c r="I217" s="13"/>
+    <row r="216" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B216" s="14"/>
+      <c r="C216" s="14"/>
+      <c r="D216" s="14"/>
+      <c r="E216" s="17"/>
+      <c r="F216" s="14"/>
+      <c r="G216" s="17"/>
+      <c r="H216" s="90"/>
+      <c r="I216" s="14"/>
+    </row>
+    <row r="217" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B217" s="14"/>
+      <c r="C217" s="14"/>
+      <c r="D217" s="14"/>
+      <c r="E217" s="17"/>
+      <c r="F217" s="14"/>
+      <c r="G217" s="17"/>
+      <c r="H217" s="90"/>
+      <c r="I217" s="14"/>
     </row>
     <row r="218" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B218" s="13"/>
@@ -4219,8 +4408,8 @@
       <c r="D218" s="13"/>
       <c r="E218" s="33"/>
       <c r="F218" s="13"/>
-      <c r="G218" s="13"/>
-      <c r="H218" s="13"/>
+      <c r="G218" s="33"/>
+      <c r="H218" s="97"/>
       <c r="I218" s="13"/>
     </row>
     <row r="219" spans="2:9" x14ac:dyDescent="0.25">
@@ -4229,8 +4418,8 @@
       <c r="D219" s="13"/>
       <c r="E219" s="33"/>
       <c r="F219" s="13"/>
-      <c r="G219" s="13"/>
-      <c r="H219" s="13"/>
+      <c r="G219" s="33"/>
+      <c r="H219" s="97"/>
       <c r="I219" s="13"/>
     </row>
     <row r="220" spans="2:9" x14ac:dyDescent="0.25">
@@ -4239,8 +4428,8 @@
       <c r="D220" s="13"/>
       <c r="E220" s="33"/>
       <c r="F220" s="13"/>
-      <c r="G220" s="13"/>
-      <c r="H220" s="13"/>
+      <c r="G220" s="33"/>
+      <c r="H220" s="97"/>
       <c r="I220" s="13"/>
     </row>
     <row r="221" spans="2:9" x14ac:dyDescent="0.25">
@@ -4249,8 +4438,8 @@
       <c r="D221" s="13"/>
       <c r="E221" s="33"/>
       <c r="F221" s="13"/>
-      <c r="G221" s="13"/>
-      <c r="H221" s="13"/>
+      <c r="G221" s="33"/>
+      <c r="H221" s="97"/>
       <c r="I221" s="13"/>
     </row>
     <row r="222" spans="2:9" x14ac:dyDescent="0.25">
@@ -4259,8 +4448,8 @@
       <c r="D222" s="13"/>
       <c r="E222" s="33"/>
       <c r="F222" s="13"/>
-      <c r="G222" s="13"/>
-      <c r="H222" s="13"/>
+      <c r="G222" s="33"/>
+      <c r="H222" s="97"/>
       <c r="I222" s="13"/>
     </row>
     <row r="223" spans="2:9" x14ac:dyDescent="0.25">
@@ -4269,8 +4458,8 @@
       <c r="D223" s="13"/>
       <c r="E223" s="33"/>
       <c r="F223" s="13"/>
-      <c r="G223" s="13"/>
-      <c r="H223" s="13"/>
+      <c r="G223" s="33"/>
+      <c r="H223" s="97"/>
       <c r="I223" s="13"/>
     </row>
     <row r="224" spans="2:9" x14ac:dyDescent="0.25">
@@ -4279,8 +4468,8 @@
       <c r="D224" s="13"/>
       <c r="E224" s="33"/>
       <c r="F224" s="13"/>
-      <c r="G224" s="13"/>
-      <c r="H224" s="13"/>
+      <c r="G224" s="33"/>
+      <c r="H224" s="97"/>
       <c r="I224" s="13"/>
     </row>
     <row r="225" spans="2:9" x14ac:dyDescent="0.25">
@@ -4289,8 +4478,8 @@
       <c r="D225" s="13"/>
       <c r="E225" s="33"/>
       <c r="F225" s="13"/>
-      <c r="G225" s="13"/>
-      <c r="H225" s="13"/>
+      <c r="G225" s="33"/>
+      <c r="H225" s="97"/>
       <c r="I225" s="13"/>
     </row>
     <row r="226" spans="2:9" x14ac:dyDescent="0.25">
@@ -4299,8 +4488,8 @@
       <c r="D226" s="13"/>
       <c r="E226" s="33"/>
       <c r="F226" s="13"/>
-      <c r="G226" s="13"/>
-      <c r="H226" s="13"/>
+      <c r="G226" s="33"/>
+      <c r="H226" s="97"/>
       <c r="I226" s="13"/>
     </row>
     <row r="227" spans="2:9" x14ac:dyDescent="0.25">
@@ -4309,8 +4498,8 @@
       <c r="D227" s="13"/>
       <c r="E227" s="33"/>
       <c r="F227" s="13"/>
-      <c r="G227" s="13"/>
-      <c r="H227" s="13"/>
+      <c r="G227" s="33"/>
+      <c r="H227" s="97"/>
       <c r="I227" s="13"/>
     </row>
     <row r="228" spans="2:9" x14ac:dyDescent="0.25">
@@ -4319,8 +4508,8 @@
       <c r="D228" s="13"/>
       <c r="E228" s="33"/>
       <c r="F228" s="13"/>
-      <c r="G228" s="13"/>
-      <c r="H228" s="13"/>
+      <c r="G228" s="33"/>
+      <c r="H228" s="97"/>
       <c r="I228" s="13"/>
     </row>
     <row r="229" spans="2:9" x14ac:dyDescent="0.25">
@@ -4329,8 +4518,8 @@
       <c r="D229" s="13"/>
       <c r="E229" s="33"/>
       <c r="F229" s="13"/>
-      <c r="G229" s="13"/>
-      <c r="H229" s="13"/>
+      <c r="G229" s="33"/>
+      <c r="H229" s="97"/>
       <c r="I229" s="13"/>
     </row>
     <row r="230" spans="2:9" x14ac:dyDescent="0.25">
@@ -4339,8 +4528,8 @@
       <c r="D230" s="13"/>
       <c r="E230" s="33"/>
       <c r="F230" s="13"/>
-      <c r="G230" s="13"/>
-      <c r="H230" s="13"/>
+      <c r="G230" s="33"/>
+      <c r="H230" s="97"/>
       <c r="I230" s="13"/>
     </row>
     <row r="231" spans="2:9" x14ac:dyDescent="0.25">
@@ -4349,8 +4538,8 @@
       <c r="D231" s="13"/>
       <c r="E231" s="33"/>
       <c r="F231" s="13"/>
-      <c r="G231" s="13"/>
-      <c r="H231" s="13"/>
+      <c r="G231" s="33"/>
+      <c r="H231" s="97"/>
       <c r="I231" s="13"/>
     </row>
     <row r="232" spans="2:9" x14ac:dyDescent="0.25">
@@ -4359,8 +4548,8 @@
       <c r="D232" s="13"/>
       <c r="E232" s="33"/>
       <c r="F232" s="13"/>
-      <c r="G232" s="13"/>
-      <c r="H232" s="13"/>
+      <c r="G232" s="33"/>
+      <c r="H232" s="97"/>
       <c r="I232" s="13"/>
     </row>
     <row r="233" spans="2:9" x14ac:dyDescent="0.25">
@@ -4369,8 +4558,8 @@
       <c r="D233" s="13"/>
       <c r="E233" s="33"/>
       <c r="F233" s="13"/>
-      <c r="G233" s="13"/>
-      <c r="H233" s="13"/>
+      <c r="G233" s="33"/>
+      <c r="H233" s="97"/>
       <c r="I233" s="13"/>
     </row>
     <row r="234" spans="2:9" x14ac:dyDescent="0.25">
@@ -4379,8 +4568,8 @@
       <c r="D234" s="13"/>
       <c r="E234" s="33"/>
       <c r="F234" s="13"/>
-      <c r="G234" s="13"/>
-      <c r="H234" s="13"/>
+      <c r="G234" s="33"/>
+      <c r="H234" s="97"/>
       <c r="I234" s="13"/>
     </row>
     <row r="235" spans="2:9" x14ac:dyDescent="0.25">
@@ -4389,8 +4578,8 @@
       <c r="D235" s="13"/>
       <c r="E235" s="33"/>
       <c r="F235" s="13"/>
-      <c r="G235" s="13"/>
-      <c r="H235" s="13"/>
+      <c r="G235" s="33"/>
+      <c r="H235" s="97"/>
       <c r="I235" s="13"/>
     </row>
     <row r="236" spans="2:9" x14ac:dyDescent="0.25">
@@ -4399,8 +4588,8 @@
       <c r="D236" s="13"/>
       <c r="E236" s="33"/>
       <c r="F236" s="13"/>
-      <c r="G236" s="13"/>
-      <c r="H236" s="13"/>
+      <c r="G236" s="33"/>
+      <c r="H236" s="97"/>
       <c r="I236" s="13"/>
     </row>
     <row r="237" spans="2:9" x14ac:dyDescent="0.25">
@@ -4409,8 +4598,8 @@
       <c r="D237" s="13"/>
       <c r="E237" s="33"/>
       <c r="F237" s="13"/>
-      <c r="G237" s="13"/>
-      <c r="H237" s="13"/>
+      <c r="G237" s="33"/>
+      <c r="H237" s="97"/>
       <c r="I237" s="13"/>
     </row>
     <row r="238" spans="2:9" x14ac:dyDescent="0.25">
@@ -4419,8 +4608,8 @@
       <c r="D238" s="13"/>
       <c r="E238" s="33"/>
       <c r="F238" s="13"/>
-      <c r="G238" s="13"/>
-      <c r="H238" s="13"/>
+      <c r="G238" s="33"/>
+      <c r="H238" s="97"/>
       <c r="I238" s="13"/>
     </row>
     <row r="239" spans="2:9" x14ac:dyDescent="0.25">
@@ -4429,8 +4618,8 @@
       <c r="D239" s="13"/>
       <c r="E239" s="33"/>
       <c r="F239" s="13"/>
-      <c r="G239" s="13"/>
-      <c r="H239" s="13"/>
+      <c r="G239" s="33"/>
+      <c r="H239" s="97"/>
       <c r="I239" s="13"/>
     </row>
     <row r="240" spans="2:9" x14ac:dyDescent="0.25">
@@ -4439,8 +4628,8 @@
       <c r="D240" s="13"/>
       <c r="E240" s="33"/>
       <c r="F240" s="13"/>
-      <c r="G240" s="13"/>
-      <c r="H240" s="13"/>
+      <c r="G240" s="33"/>
+      <c r="H240" s="97"/>
       <c r="I240" s="13"/>
     </row>
     <row r="241" spans="2:9" x14ac:dyDescent="0.25">
@@ -4449,8 +4638,8 @@
       <c r="D241" s="13"/>
       <c r="E241" s="33"/>
       <c r="F241" s="13"/>
-      <c r="G241" s="13"/>
-      <c r="H241" s="13"/>
+      <c r="G241" s="33"/>
+      <c r="H241" s="97"/>
       <c r="I241" s="13"/>
     </row>
     <row r="242" spans="2:9" x14ac:dyDescent="0.25">
@@ -4459,8 +4648,8 @@
       <c r="D242" s="13"/>
       <c r="E242" s="33"/>
       <c r="F242" s="13"/>
-      <c r="G242" s="13"/>
-      <c r="H242" s="13"/>
+      <c r="G242" s="33"/>
+      <c r="H242" s="97"/>
       <c r="I242" s="13"/>
     </row>
     <row r="243" spans="2:9" x14ac:dyDescent="0.25">
@@ -4469,8 +4658,8 @@
       <c r="D243" s="13"/>
       <c r="E243" s="33"/>
       <c r="F243" s="13"/>
-      <c r="G243" s="13"/>
-      <c r="H243" s="13"/>
+      <c r="G243" s="33"/>
+      <c r="H243" s="97"/>
       <c r="I243" s="13"/>
     </row>
     <row r="244" spans="2:9" x14ac:dyDescent="0.25">
@@ -4479,8 +4668,8 @@
       <c r="D244" s="13"/>
       <c r="E244" s="33"/>
       <c r="F244" s="13"/>
-      <c r="G244" s="13"/>
-      <c r="H244" s="13"/>
+      <c r="G244" s="33"/>
+      <c r="H244" s="97"/>
       <c r="I244" s="13"/>
     </row>
     <row r="245" spans="2:9" x14ac:dyDescent="0.25">
@@ -4489,8 +4678,8 @@
       <c r="D245" s="13"/>
       <c r="E245" s="33"/>
       <c r="F245" s="13"/>
-      <c r="G245" s="13"/>
-      <c r="H245" s="13"/>
+      <c r="G245" s="33"/>
+      <c r="H245" s="97"/>
       <c r="I245" s="13"/>
     </row>
     <row r="246" spans="2:9" x14ac:dyDescent="0.25">
@@ -4499,8 +4688,8 @@
       <c r="D246" s="13"/>
       <c r="E246" s="33"/>
       <c r="F246" s="13"/>
-      <c r="G246" s="13"/>
-      <c r="H246" s="13"/>
+      <c r="G246" s="33"/>
+      <c r="H246" s="97"/>
       <c r="I246" s="13"/>
     </row>
     <row r="247" spans="2:9" x14ac:dyDescent="0.25">
@@ -4509,8 +4698,8 @@
       <c r="D247" s="13"/>
       <c r="E247" s="33"/>
       <c r="F247" s="13"/>
-      <c r="G247" s="13"/>
-      <c r="H247" s="13"/>
+      <c r="G247" s="33"/>
+      <c r="H247" s="97"/>
       <c r="I247" s="13"/>
     </row>
     <row r="248" spans="2:9" x14ac:dyDescent="0.25">
@@ -4519,8 +4708,8 @@
       <c r="D248" s="13"/>
       <c r="E248" s="33"/>
       <c r="F248" s="13"/>
-      <c r="G248" s="13"/>
-      <c r="H248" s="13"/>
+      <c r="G248" s="33"/>
+      <c r="H248" s="97"/>
       <c r="I248" s="13"/>
     </row>
     <row r="249" spans="2:9" x14ac:dyDescent="0.25">
@@ -4529,8 +4718,8 @@
       <c r="D249" s="13"/>
       <c r="E249" s="33"/>
       <c r="F249" s="13"/>
-      <c r="G249" s="13"/>
-      <c r="H249" s="13"/>
+      <c r="G249" s="33"/>
+      <c r="H249" s="97"/>
       <c r="I249" s="13"/>
     </row>
     <row r="250" spans="2:9" x14ac:dyDescent="0.25">
@@ -4539,8 +4728,8 @@
       <c r="D250" s="13"/>
       <c r="E250" s="33"/>
       <c r="F250" s="13"/>
-      <c r="G250" s="13"/>
-      <c r="H250" s="13"/>
+      <c r="G250" s="33"/>
+      <c r="H250" s="97"/>
       <c r="I250" s="13"/>
     </row>
     <row r="251" spans="2:9" x14ac:dyDescent="0.25">
@@ -4549,8 +4738,8 @@
       <c r="D251" s="13"/>
       <c r="E251" s="33"/>
       <c r="F251" s="13"/>
-      <c r="G251" s="13"/>
-      <c r="H251" s="13"/>
+      <c r="G251" s="33"/>
+      <c r="H251" s="97"/>
       <c r="I251" s="13"/>
     </row>
     <row r="252" spans="2:9" x14ac:dyDescent="0.25">
@@ -4559,8 +4748,8 @@
       <c r="D252" s="13"/>
       <c r="E252" s="33"/>
       <c r="F252" s="13"/>
-      <c r="G252" s="13"/>
-      <c r="H252" s="13"/>
+      <c r="G252" s="33"/>
+      <c r="H252" s="97"/>
       <c r="I252" s="13"/>
     </row>
     <row r="253" spans="2:9" x14ac:dyDescent="0.25">
@@ -4569,28 +4758,28 @@
       <c r="D253" s="13"/>
       <c r="E253" s="33"/>
       <c r="F253" s="13"/>
-      <c r="G253" s="13"/>
-      <c r="H253" s="13"/>
+      <c r="G253" s="33"/>
+      <c r="H253" s="97"/>
       <c r="I253" s="13"/>
     </row>
     <row r="254" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B254" s="13"/>
       <c r="C254" s="13"/>
       <c r="D254" s="13"/>
-      <c r="E254" s="13"/>
+      <c r="E254" s="33"/>
       <c r="F254" s="13"/>
-      <c r="G254" s="13"/>
-      <c r="H254" s="13"/>
+      <c r="G254" s="33"/>
+      <c r="H254" s="97"/>
       <c r="I254" s="13"/>
     </row>
     <row r="255" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B255" s="13"/>
       <c r="C255" s="13"/>
       <c r="D255" s="13"/>
-      <c r="E255" s="13"/>
+      <c r="E255" s="33"/>
       <c r="F255" s="13"/>
-      <c r="G255" s="13"/>
-      <c r="H255" s="13"/>
+      <c r="G255" s="33"/>
+      <c r="H255" s="97"/>
       <c r="I255" s="13"/>
     </row>
     <row r="256" spans="2:9" x14ac:dyDescent="0.25">
@@ -4599,8 +4788,8 @@
       <c r="D256" s="13"/>
       <c r="E256" s="13"/>
       <c r="F256" s="13"/>
-      <c r="G256" s="13"/>
-      <c r="H256" s="13"/>
+      <c r="G256" s="33"/>
+      <c r="H256" s="97"/>
       <c r="I256" s="13"/>
     </row>
     <row r="257" spans="2:9" x14ac:dyDescent="0.25">
@@ -4609,8 +4798,8 @@
       <c r="D257" s="13"/>
       <c r="E257" s="13"/>
       <c r="F257" s="13"/>
-      <c r="G257" s="13"/>
-      <c r="H257" s="13"/>
+      <c r="G257" s="33"/>
+      <c r="H257" s="97"/>
       <c r="I257" s="13"/>
     </row>
     <row r="258" spans="2:9" x14ac:dyDescent="0.25">
@@ -4619,8 +4808,8 @@
       <c r="D258" s="13"/>
       <c r="E258" s="13"/>
       <c r="F258" s="13"/>
-      <c r="G258" s="13"/>
-      <c r="H258" s="13"/>
+      <c r="G258" s="33"/>
+      <c r="H258" s="97"/>
       <c r="I258" s="13"/>
     </row>
     <row r="259" spans="2:9" x14ac:dyDescent="0.25">
@@ -4629,8 +4818,8 @@
       <c r="D259" s="13"/>
       <c r="E259" s="13"/>
       <c r="F259" s="13"/>
-      <c r="G259" s="13"/>
-      <c r="H259" s="13"/>
+      <c r="G259" s="33"/>
+      <c r="H259" s="97"/>
       <c r="I259" s="13"/>
     </row>
     <row r="260" spans="2:9" x14ac:dyDescent="0.25">
@@ -4639,8 +4828,8 @@
       <c r="D260" s="13"/>
       <c r="E260" s="13"/>
       <c r="F260" s="13"/>
-      <c r="G260" s="13"/>
-      <c r="H260" s="13"/>
+      <c r="G260" s="33"/>
+      <c r="H260" s="97"/>
       <c r="I260" s="13"/>
     </row>
     <row r="261" spans="2:9" x14ac:dyDescent="0.25">
@@ -4649,8 +4838,8 @@
       <c r="D261" s="13"/>
       <c r="E261" s="13"/>
       <c r="F261" s="13"/>
-      <c r="G261" s="13"/>
-      <c r="H261" s="13"/>
+      <c r="G261" s="33"/>
+      <c r="H261" s="97"/>
       <c r="I261" s="13"/>
     </row>
     <row r="262" spans="2:9" x14ac:dyDescent="0.25">
@@ -4659,8 +4848,8 @@
       <c r="D262" s="13"/>
       <c r="E262" s="13"/>
       <c r="F262" s="13"/>
-      <c r="G262" s="13"/>
-      <c r="H262" s="13"/>
+      <c r="G262" s="33"/>
+      <c r="H262" s="97"/>
       <c r="I262" s="13"/>
     </row>
     <row r="263" spans="2:9" x14ac:dyDescent="0.25">
@@ -4669,8 +4858,8 @@
       <c r="D263" s="13"/>
       <c r="E263" s="13"/>
       <c r="F263" s="13"/>
-      <c r="G263" s="13"/>
-      <c r="H263" s="13"/>
+      <c r="G263" s="33"/>
+      <c r="H263" s="97"/>
       <c r="I263" s="13"/>
     </row>
     <row r="264" spans="2:9" x14ac:dyDescent="0.25">
@@ -4679,8 +4868,8 @@
       <c r="D264" s="13"/>
       <c r="E264" s="13"/>
       <c r="F264" s="13"/>
-      <c r="G264" s="13"/>
-      <c r="H264" s="13"/>
+      <c r="G264" s="33"/>
+      <c r="H264" s="97"/>
       <c r="I264" s="13"/>
     </row>
     <row r="265" spans="2:9" x14ac:dyDescent="0.25">
@@ -4689,8 +4878,8 @@
       <c r="D265" s="13"/>
       <c r="E265" s="13"/>
       <c r="F265" s="13"/>
-      <c r="G265" s="13"/>
-      <c r="H265" s="13"/>
+      <c r="G265" s="33"/>
+      <c r="H265" s="97"/>
       <c r="I265" s="13"/>
     </row>
     <row r="266" spans="2:9" x14ac:dyDescent="0.25">
@@ -4699,8 +4888,8 @@
       <c r="D266" s="13"/>
       <c r="E266" s="13"/>
       <c r="F266" s="13"/>
-      <c r="G266" s="13"/>
-      <c r="H266" s="13"/>
+      <c r="G266" s="33"/>
+      <c r="H266" s="97"/>
       <c r="I266" s="13"/>
     </row>
     <row r="267" spans="2:9" x14ac:dyDescent="0.25">
@@ -4709,8 +4898,8 @@
       <c r="D267" s="13"/>
       <c r="E267" s="13"/>
       <c r="F267" s="13"/>
-      <c r="G267" s="13"/>
-      <c r="H267" s="13"/>
+      <c r="G267" s="33"/>
+      <c r="H267" s="97"/>
       <c r="I267" s="13"/>
     </row>
     <row r="268" spans="2:9" x14ac:dyDescent="0.25">
@@ -4719,8 +4908,8 @@
       <c r="D268" s="13"/>
       <c r="E268" s="13"/>
       <c r="F268" s="13"/>
-      <c r="G268" s="13"/>
-      <c r="H268" s="13"/>
+      <c r="G268" s="33"/>
+      <c r="H268" s="97"/>
       <c r="I268" s="13"/>
     </row>
     <row r="269" spans="2:9" x14ac:dyDescent="0.25">
@@ -4729,8 +4918,8 @@
       <c r="D269" s="13"/>
       <c r="E269" s="13"/>
       <c r="F269" s="13"/>
-      <c r="G269" s="13"/>
-      <c r="H269" s="13"/>
+      <c r="G269" s="33"/>
+      <c r="H269" s="97"/>
       <c r="I269" s="13"/>
     </row>
     <row r="270" spans="2:9" x14ac:dyDescent="0.25">
@@ -4739,8 +4928,8 @@
       <c r="D270" s="13"/>
       <c r="E270" s="13"/>
       <c r="F270" s="13"/>
-      <c r="G270" s="13"/>
-      <c r="H270" s="13"/>
+      <c r="G270" s="33"/>
+      <c r="H270" s="97"/>
       <c r="I270" s="13"/>
     </row>
     <row r="271" spans="2:9" x14ac:dyDescent="0.25">
@@ -4749,8 +4938,8 @@
       <c r="D271" s="13"/>
       <c r="E271" s="13"/>
       <c r="F271" s="13"/>
-      <c r="G271" s="13"/>
-      <c r="H271" s="13"/>
+      <c r="G271" s="33"/>
+      <c r="H271" s="97"/>
       <c r="I271" s="13"/>
     </row>
     <row r="272" spans="2:9" x14ac:dyDescent="0.25">
@@ -4759,8 +4948,8 @@
       <c r="D272" s="13"/>
       <c r="E272" s="13"/>
       <c r="F272" s="13"/>
-      <c r="G272" s="13"/>
-      <c r="H272" s="13"/>
+      <c r="G272" s="33"/>
+      <c r="H272" s="97"/>
       <c r="I272" s="13"/>
     </row>
     <row r="273" spans="2:9" x14ac:dyDescent="0.25">
@@ -4769,8 +4958,8 @@
       <c r="D273" s="13"/>
       <c r="E273" s="13"/>
       <c r="F273" s="13"/>
-      <c r="G273" s="13"/>
-      <c r="H273" s="13"/>
+      <c r="G273" s="33"/>
+      <c r="H273" s="97"/>
       <c r="I273" s="13"/>
     </row>
     <row r="274" spans="2:9" x14ac:dyDescent="0.25">
@@ -4779,8 +4968,8 @@
       <c r="D274" s="13"/>
       <c r="E274" s="13"/>
       <c r="F274" s="13"/>
-      <c r="G274" s="13"/>
-      <c r="H274" s="13"/>
+      <c r="G274" s="33"/>
+      <c r="H274" s="97"/>
       <c r="I274" s="13"/>
     </row>
     <row r="275" spans="2:9" x14ac:dyDescent="0.25">
@@ -4789,8 +4978,8 @@
       <c r="D275" s="13"/>
       <c r="E275" s="13"/>
       <c r="F275" s="13"/>
-      <c r="G275" s="13"/>
-      <c r="H275" s="13"/>
+      <c r="G275" s="33"/>
+      <c r="H275" s="97"/>
       <c r="I275" s="13"/>
     </row>
     <row r="276" spans="2:9" x14ac:dyDescent="0.25">
@@ -4799,8 +4988,8 @@
       <c r="D276" s="13"/>
       <c r="E276" s="13"/>
       <c r="F276" s="13"/>
-      <c r="G276" s="13"/>
-      <c r="H276" s="13"/>
+      <c r="G276" s="33"/>
+      <c r="H276" s="97"/>
       <c r="I276" s="13"/>
     </row>
     <row r="277" spans="2:9" x14ac:dyDescent="0.25">
@@ -4809,8 +4998,8 @@
       <c r="D277" s="13"/>
       <c r="E277" s="13"/>
       <c r="F277" s="13"/>
-      <c r="G277" s="13"/>
-      <c r="H277" s="13"/>
+      <c r="G277" s="33"/>
+      <c r="H277" s="97"/>
       <c r="I277" s="13"/>
     </row>
     <row r="278" spans="2:9" x14ac:dyDescent="0.25">
@@ -4819,8 +5008,8 @@
       <c r="D278" s="13"/>
       <c r="E278" s="13"/>
       <c r="F278" s="13"/>
-      <c r="G278" s="13"/>
-      <c r="H278" s="13"/>
+      <c r="G278" s="33"/>
+      <c r="H278" s="97"/>
       <c r="I278" s="13"/>
     </row>
     <row r="279" spans="2:9" x14ac:dyDescent="0.25">
@@ -4829,8 +5018,8 @@
       <c r="D279" s="13"/>
       <c r="E279" s="13"/>
       <c r="F279" s="13"/>
-      <c r="G279" s="13"/>
-      <c r="H279" s="13"/>
+      <c r="G279" s="33"/>
+      <c r="H279" s="97"/>
       <c r="I279" s="13"/>
     </row>
     <row r="280" spans="2:9" x14ac:dyDescent="0.25">
@@ -4839,8 +5028,8 @@
       <c r="D280" s="13"/>
       <c r="E280" s="13"/>
       <c r="F280" s="13"/>
-      <c r="G280" s="13"/>
-      <c r="H280" s="13"/>
+      <c r="G280" s="33"/>
+      <c r="H280" s="97"/>
       <c r="I280" s="13"/>
     </row>
     <row r="281" spans="2:9" x14ac:dyDescent="0.25">
@@ -4849,8 +5038,8 @@
       <c r="D281" s="13"/>
       <c r="E281" s="13"/>
       <c r="F281" s="13"/>
-      <c r="G281" s="13"/>
-      <c r="H281" s="13"/>
+      <c r="G281" s="33"/>
+      <c r="H281" s="97"/>
       <c r="I281" s="13"/>
     </row>
     <row r="282" spans="2:9" x14ac:dyDescent="0.25">
@@ -4859,8 +5048,8 @@
       <c r="D282" s="13"/>
       <c r="E282" s="13"/>
       <c r="F282" s="13"/>
-      <c r="G282" s="13"/>
-      <c r="H282" s="13"/>
+      <c r="G282" s="33"/>
+      <c r="H282" s="97"/>
       <c r="I282" s="13"/>
     </row>
     <row r="283" spans="2:9" x14ac:dyDescent="0.25">
@@ -4869,8 +5058,8 @@
       <c r="D283" s="13"/>
       <c r="E283" s="13"/>
       <c r="F283" s="13"/>
-      <c r="G283" s="13"/>
-      <c r="H283" s="13"/>
+      <c r="G283" s="33"/>
+      <c r="H283" s="97"/>
       <c r="I283" s="13"/>
     </row>
     <row r="284" spans="2:9" x14ac:dyDescent="0.25">
@@ -4879,8 +5068,8 @@
       <c r="D284" s="13"/>
       <c r="E284" s="13"/>
       <c r="F284" s="13"/>
-      <c r="G284" s="13"/>
-      <c r="H284" s="13"/>
+      <c r="G284" s="33"/>
+      <c r="H284" s="97"/>
       <c r="I284" s="13"/>
     </row>
     <row r="285" spans="2:9" x14ac:dyDescent="0.25">
@@ -4889,8 +5078,8 @@
       <c r="D285" s="13"/>
       <c r="E285" s="13"/>
       <c r="F285" s="13"/>
-      <c r="G285" s="13"/>
-      <c r="H285" s="13"/>
+      <c r="G285" s="33"/>
+      <c r="H285" s="97"/>
       <c r="I285" s="13"/>
     </row>
     <row r="286" spans="2:9" x14ac:dyDescent="0.25">
@@ -4899,8 +5088,8 @@
       <c r="D286" s="13"/>
       <c r="E286" s="13"/>
       <c r="F286" s="13"/>
-      <c r="G286" s="13"/>
-      <c r="H286" s="13"/>
+      <c r="G286" s="33"/>
+      <c r="H286" s="97"/>
       <c r="I286" s="13"/>
     </row>
     <row r="287" spans="2:9" x14ac:dyDescent="0.25">
@@ -4909,8 +5098,8 @@
       <c r="D287" s="13"/>
       <c r="E287" s="13"/>
       <c r="F287" s="13"/>
-      <c r="G287" s="13"/>
-      <c r="H287" s="13"/>
+      <c r="G287" s="33"/>
+      <c r="H287" s="97"/>
       <c r="I287" s="13"/>
     </row>
     <row r="288" spans="2:9" x14ac:dyDescent="0.25">
@@ -4919,8 +5108,8 @@
       <c r="D288" s="13"/>
       <c r="E288" s="13"/>
       <c r="F288" s="13"/>
-      <c r="G288" s="13"/>
-      <c r="H288" s="13"/>
+      <c r="G288" s="33"/>
+      <c r="H288" s="97"/>
       <c r="I288" s="13"/>
     </row>
     <row r="289" spans="2:9" x14ac:dyDescent="0.25">
@@ -4929,20 +5118,40 @@
       <c r="D289" s="13"/>
       <c r="E289" s="13"/>
       <c r="F289" s="13"/>
-      <c r="G289" s="13"/>
-      <c r="H289" s="13"/>
+      <c r="G289" s="33"/>
+      <c r="H289" s="97"/>
       <c r="I289" s="13"/>
+    </row>
+    <row r="290" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B290" s="13"/>
+      <c r="C290" s="13"/>
+      <c r="D290" s="13"/>
+      <c r="E290" s="13"/>
+      <c r="F290" s="13"/>
+      <c r="G290" s="33"/>
+      <c r="H290" s="97"/>
+      <c r="I290" s="13"/>
+    </row>
+    <row r="291" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B291" s="13"/>
+      <c r="C291" s="13"/>
+      <c r="D291" s="13"/>
+      <c r="E291" s="13"/>
+      <c r="F291" s="13"/>
+      <c r="G291" s="33"/>
+      <c r="H291" s="97"/>
+      <c r="I291" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="C54:C61"/>
-    <mergeCell ref="C62:C69"/>
-    <mergeCell ref="C70:C77"/>
+    <mergeCell ref="C56:C63"/>
+    <mergeCell ref="C64:C71"/>
+    <mergeCell ref="C72:C79"/>
     <mergeCell ref="B2:I2"/>
     <mergeCell ref="C4:C16"/>
-    <mergeCell ref="C17:C35"/>
-    <mergeCell ref="C47:C53"/>
-    <mergeCell ref="C36:C46"/>
+    <mergeCell ref="C17:C36"/>
+    <mergeCell ref="C37:C47"/>
+    <mergeCell ref="C48:C55"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" copies="0" r:id="rId1"/>
